--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6906A-93B4-4BB4-AE73-7FA3B026B77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03167BF8-F81D-4A6E-AF77-3CB6188432A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="268">
   <si>
     <t>S3</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>DIV</t>
-  </si>
-  <si>
-    <t>IMUL</t>
-  </si>
-  <si>
-    <t>IDIV</t>
   </si>
   <si>
     <t>Inst</t>
@@ -2171,192 +2165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2366,13 +2174,67 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2383,6 +2245,138 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2696,60 +2690,60 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="I1" s="23"/>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="43"/>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -2757,36 +2751,36 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I3" s="43"/>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2797,36 +2791,36 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I4" s="43"/>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2837,31 +2831,31 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="40"/>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2872,34 +2866,34 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="43"/>
       <c r="J6" s="40"/>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2907,37 +2901,37 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="40"/>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2948,37 +2942,37 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" s="43"/>
       <c r="J8" s="40"/>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2986,149 +2980,149 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="I9" s="43"/>
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>101</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
       <c r="E12" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="60" t="s">
         <v>69</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>71</v>
       </c>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I13" s="43"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>101</v>
-      </c>
       <c r="E14" s="60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="60" t="s">
         <v>69</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>71</v>
       </c>
       <c r="I14" s="43"/>
       <c r="O14" s="17"/>
@@ -3136,311 +3130,311 @@
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I15" s="43"/>
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="23"/>
       <c r="F18" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="43"/>
       <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>69</v>
-      </c>
       <c r="H27" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,35 +3444,35 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>69</v>
-      </c>
       <c r="H29" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3488,126 +3482,126 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="D34" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="E34" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>92</v>
-      </c>
       <c r="F34" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G34" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>91</v>
-      </c>
       <c r="E35" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H35" s="45"/>
     </row>
@@ -3621,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489E50B-F7AE-40DA-B3EF-ED84A344FCCC}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,94 +3636,94 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="60"/>
       <c r="F1" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I1" s="50"/>
       <c r="J1" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K1" s="51"/>
       <c r="M1" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T1" s="87"/>
       <c r="U1" s="87"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P2" s="46">
         <v>0</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R2" s="47"/>
       <c r="S2" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T2" s="87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U2" s="88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="68"/>
@@ -3740,37 +3734,37 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
       <c r="M3" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P3" s="46">
         <v>1</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R3" s="47"/>
       <c r="S3" s="88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T3" s="87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3" s="87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="82"/>
@@ -3779,119 +3773,119 @@
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
       <c r="J4" s="78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="83"/>
       <c r="M4" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T4" s="87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U4" s="87"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="81"/>
       <c r="E5" s="82"/>
       <c r="F5" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="79"/>
       <c r="J5" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K5" s="83"/>
       <c r="M5" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R5" s="47"/>
       <c r="S5" s="88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T5" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U5" s="87"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="82"/>
       <c r="F6" s="78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="83"/>
       <c r="H6" s="79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I6" s="79"/>
       <c r="J6" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="83"/>
       <c r="M6" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T6" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U6" s="87"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="82"/>
@@ -3900,220 +3894,220 @@
       <c r="H7" s="79"/>
       <c r="I7" s="79"/>
       <c r="J7" s="78" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K7" s="83"/>
       <c r="M7" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P7" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="81"/>
       <c r="E8" s="82"/>
       <c r="F8" s="78"/>
       <c r="G8" s="83"/>
       <c r="H8" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I8" s="79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P8" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="46" t="s">
         <v>151</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="81"/>
       <c r="E9" s="82"/>
       <c r="F9" s="78"/>
       <c r="G9" s="83"/>
       <c r="H9" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>172</v>
-      </c>
       <c r="P9" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="46" t="s">
         <v>152</v>
-      </c>
-      <c r="Q9" s="46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K10" s="83"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="80" t="s">
-        <v>164</v>
-      </c>
       <c r="D11" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="79"/>
       <c r="J11" s="78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K11" s="83"/>
       <c r="M11" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="82"/>
       <c r="F12" s="78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H12" s="79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I12" s="79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="74"/>
@@ -4122,354 +4116,354 @@
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
       <c r="J13" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="46" t="s">
         <v>163</v>
-      </c>
-      <c r="K13" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q13" s="46" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M14" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N14" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M15" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
       <c r="H17" s="49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D18" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>205</v>
-      </c>
       <c r="I18" s="57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J18" s="57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P18" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" s="50"/>
       <c r="G19" s="70"/>
       <c r="H19" s="69"/>
       <c r="I19" s="70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20" s="83"/>
       <c r="E20" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="83"/>
       <c r="H20" s="78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I20" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21" s="83"/>
       <c r="E21" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F21" s="53"/>
       <c r="G21" s="83"/>
       <c r="H21" s="78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I21" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22" s="78"/>
       <c r="I22" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M22" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E23" s="78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" s="83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H23" s="78"/>
       <c r="I23" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D24" s="83"/>
       <c r="E24" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="83"/>
       <c r="H24" s="78"/>
       <c r="I24" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J24" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="83"/>
       <c r="E25" s="78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="78"/>
       <c r="I25" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J25" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D26" s="76"/>
       <c r="E26" s="75" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F26" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H26" s="75"/>
       <c r="I26" s="76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -4487,32 +4481,32 @@
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C29" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="51" t="s">
         <v>140</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="84"/>
       <c r="D31" s="84"/>
@@ -4520,148 +4514,148 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" s="85"/>
       <c r="D32" s="85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="85"/>
       <c r="D33" s="85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C34" s="85"/>
       <c r="D34" s="85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" s="86"/>
       <c r="D36" s="86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="51"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C43" s="78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +4679,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4695,12 +4689,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
+      <c r="A1" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4726,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N1" s="92">
         <v>6</v>
@@ -4752,17 +4746,17 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="D2" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="97" t="s">
-        <v>242</v>
-      </c>
       <c r="E2" s="98">
         <v>0</v>
       </c>
@@ -4778,36 +4772,36 @@
       <c r="I2" s="101">
         <v>0</v>
       </c>
-      <c r="J2" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
+      <c r="J2" s="192" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="D3" s="104" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>130</v>
       </c>
       <c r="E3" s="105">
         <v>0</v>
@@ -4824,33 +4818,33 @@
       <c r="I3" s="108">
         <v>1</v>
       </c>
-      <c r="J3" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="184" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="185"/>
+      <c r="J3" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="170"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="131"/>
+        <v>81</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="105">
         <v>0</v>
       </c>
@@ -4869,30 +4863,30 @@
       <c r="J4" s="110">
         <v>0</v>
       </c>
-      <c r="K4" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="184" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="185"/>
+      <c r="K4" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="195"/>
+      <c r="M4" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="171"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
+      <c r="A5" s="149" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="105">
         <v>0</v>
       </c>
@@ -4911,32 +4905,32 @@
       <c r="J5" s="107">
         <v>1</v>
       </c>
-      <c r="K5" s="165" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="167"/>
+      <c r="K5" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="161"/>
+      <c r="M5" s="158" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="160"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="131"/>
+      <c r="A6" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="173"/>
+      <c r="C6" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="105">
         <v>0</v>
       </c>
@@ -4953,90 +4947,90 @@
         <v>1</v>
       </c>
       <c r="J6" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="165" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="186" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="167"/>
+        <v>123</v>
+      </c>
+      <c r="K6" s="162" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
+      <c r="A7" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="134">
         <v>0</v>
       </c>
-      <c r="F7" s="132">
-        <v>0</v>
-      </c>
-      <c r="G7" s="132">
+      <c r="F7" s="131">
+        <v>0</v>
+      </c>
+      <c r="G7" s="131">
         <v>1</v>
       </c>
-      <c r="H7" s="148">
-        <v>0</v>
-      </c>
-      <c r="I7" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
+      <c r="H7" s="128">
+        <v>0</v>
+      </c>
+      <c r="I7" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
       <c r="T7" s="154"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="135"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="147"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="166"/>
       <c r="M8" s="155"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="157"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="131"/>
+      <c r="A9" s="172" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="173"/>
+      <c r="C9" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="148"/>
       <c r="E9" s="105">
         <v>0</v>
       </c>
@@ -5053,28 +5047,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="165" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="167"/>
+        <v>123</v>
+      </c>
+      <c r="K9" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="160"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="131"/>
+      <c r="A10" s="172" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="105">
         <v>0</v>
       </c>
@@ -5090,630 +5084,620 @@
       <c r="I10" s="111">
         <v>1</v>
       </c>
-      <c r="J10" s="168" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="169"/>
+      <c r="J10" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="183"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="A11" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="134">
         <v>0</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="131">
         <v>1</v>
       </c>
-      <c r="G11" s="132">
-        <v>0</v>
-      </c>
-      <c r="H11" s="148">
-        <v>0</v>
-      </c>
-      <c r="I11" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
+      <c r="G11" s="131">
+        <v>0</v>
+      </c>
+      <c r="H11" s="128">
+        <v>0</v>
+      </c>
+      <c r="I11" s="163" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
       <c r="T11" s="154"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="135"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="166"/>
       <c r="M12" s="155"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="157"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138"/>
+      <c r="A13" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="134">
         <v>0</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="131">
         <v>1</v>
       </c>
-      <c r="G13" s="132">
-        <v>0</v>
-      </c>
-      <c r="H13" s="148">
+      <c r="G13" s="131">
+        <v>0</v>
+      </c>
+      <c r="H13" s="128">
         <v>1</v>
       </c>
-      <c r="I13" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
+      <c r="I13" s="163" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
       <c r="T13" s="154"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="135"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="147"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="166"/>
       <c r="M14" s="155"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="157"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
+      <c r="A15" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F15" s="131">
         <v>1</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="128">
         <v>1</v>
       </c>
-      <c r="H15" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="153" t="s">
+      <c r="H15" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="153"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="S15" s="143"/>
+      <c r="S15" s="153"/>
       <c r="T15" s="154"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="163"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="180"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="163"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="180"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="135"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="155"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="166"/>
       <c r="O18" s="155"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="147"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="166"/>
       <c r="R18" s="155"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="157"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="177">
+      <c r="A19" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="188">
         <v>1</v>
       </c>
-      <c r="F19" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="153" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
+      <c r="F19" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="153"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
       <c r="T19" s="154"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="163"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="180"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="171"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="163"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="180"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="163"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="180"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="163"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="180"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="163"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="180"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="171"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="163"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="180"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="163"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="180"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="163"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="180"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="163"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="180"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="163"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="180"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="171"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="163"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="180"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="163"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="180"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="163"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="180"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="163"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="180"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="174"/>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="161"/>
-      <c r="T34" s="164"/>
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:L12"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="M11:T12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
@@ -5730,22 +5714,32 @@
     <mergeCell ref="A19:D34"/>
     <mergeCell ref="E19:E34"/>
     <mergeCell ref="F19:I34"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5756,8 +5750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D60C82-07C4-4D43-9229-4AF7BD948FF4}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5767,29 +5761,29 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -5797,125 +5791,125 @@
         <v>1</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L2" s="88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>250</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="G3" s="37"/>
       <c r="J3" s="88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>250</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="G4" s="37"/>
       <c r="J4" s="88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K4" s="87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L4" s="87"/>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="J5" s="88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K5" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="87"/>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="J6" s="88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K6" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6" s="87"/>
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7">
@@ -5925,10 +5919,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="5"/>
@@ -5940,10 +5934,10 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
@@ -5954,13 +5948,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10">
@@ -5970,16 +5964,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5988,13 +5982,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12">
@@ -6004,16 +5998,16 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6029,10 +6023,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14">
@@ -6045,10 +6039,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15">
@@ -6061,10 +6055,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16">
@@ -6077,10 +6071,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17">
@@ -6090,13 +6084,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18">
@@ -6105,13 +6099,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19">
@@ -6120,13 +6114,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20">
@@ -6135,13 +6129,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21">
@@ -6150,13 +6144,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22">
@@ -6165,13 +6159,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23">
@@ -6180,13 +6174,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24">
@@ -6195,13 +6189,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25">
@@ -6210,13 +6204,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26">
@@ -6225,13 +6219,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27">
@@ -6240,13 +6234,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28">
@@ -6255,13 +6249,13 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29">
@@ -6285,7 +6279,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>33</v>
@@ -6446,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>34</v>
@@ -6469,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>9</v>
@@ -6492,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>17</v>
@@ -6587,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>17</v>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03167BF8-F81D-4A6E-AF77-3CB6188432A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00528024-CABF-4F0B-A694-41763FDE4681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660B940-324A-409A-9742-8BFC9B3A5F3A}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,8 +5750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D60C82-07C4-4D43-9229-4AF7BD948FF4}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,7 +6279,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00528024-CABF-4F0B-A694-41763FDE4681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA8C9FB-CC40-4B12-BC1C-C1C9CEDAF76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -3616,7 +3616,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="T3" sqref="T3:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,7 +4678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660B940-324A-409A-9742-8BFC9B3A5F3A}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5750,8 +5750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D60C82-07C4-4D43-9229-4AF7BD948FF4}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,7 +6279,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA8C9FB-CC40-4B12-BC1C-C1C9CEDAF76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CAB141-0396-4723-9D56-C2D4FE927F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -5750,7 +5750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D60C82-07C4-4D43-9229-4AF7BD948FF4}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -6278,7 +6278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CAB141-0396-4723-9D56-C2D4FE927F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B3F69-375A-4892-85C5-E967AC78A135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="300">
   <si>
     <t>S3</t>
   </si>
@@ -833,6 +833,102 @@
   </si>
   <si>
     <t>#LRL|#LRH</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>VC</t>
   </si>
 </sst>
 </file>
@@ -2087,9 +2183,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2108,19 +2201,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2165,6 +2246,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2174,67 +2456,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,138 +2473,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2678,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587EB1-1C15-4BDC-B095-DE818FDD326C}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -3616,7 +3712,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T6"/>
+      <selection activeCell="S1" sqref="S1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,25 +4772,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660B940-324A-409A-9742-8BFC9B3A5F3A}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="87" customWidth="1"/>
+    <col min="5" max="19" width="9.140625" style="87"/>
+    <col min="20" max="20" width="9.140625" style="87" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4744,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>237</v>
       </c>
@@ -4760,928 +4858,1207 @@
       <c r="E2" s="98">
         <v>0</v>
       </c>
-      <c r="F2" s="99">
+      <c r="F2" s="121">
         <v>0</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="121">
         <v>0</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="99">
         <v>0</v>
       </c>
-      <c r="I2" s="101">
+      <c r="I2" s="100">
         <v>0</v>
       </c>
-      <c r="J2" s="192" t="s">
+      <c r="J2" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="167" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168" t="s">
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="W2" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="104">
         <v>0</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="122">
         <v>0</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="122">
         <v>0</v>
       </c>
-      <c r="H3" s="107">
+      <c r="H3" s="124">
         <v>0</v>
       </c>
-      <c r="I3" s="108">
+      <c r="I3" s="105">
         <v>1</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="161" t="s">
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170" t="s">
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="185"/>
+      <c r="W3" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="X3" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y3" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z3" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="105">
+      <c r="C4" s="152"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="104">
         <v>0</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="122">
         <v>0</v>
       </c>
-      <c r="G4" s="106">
+      <c r="G4" s="122">
         <v>0</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="124">
         <v>1</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4" s="105">
         <v>0</v>
       </c>
-      <c r="J4" s="110">
+      <c r="J4" s="120">
         <v>0</v>
       </c>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="195"/>
-      <c r="M4" s="161" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170" t="s">
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="171"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="185"/>
+      <c r="W4" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="X4" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y4" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z4" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="193" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="105">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="104">
         <v>0</v>
       </c>
-      <c r="F5" s="106">
+      <c r="F5" s="122">
         <v>0</v>
       </c>
-      <c r="G5" s="106">
+      <c r="G5" s="122">
         <v>0</v>
       </c>
-      <c r="H5" s="107">
+      <c r="H5" s="124">
         <v>1</v>
       </c>
-      <c r="I5" s="109">
+      <c r="I5" s="123">
         <v>0</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="124">
         <v>1</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="158" t="s">
+      <c r="L5" s="184"/>
+      <c r="M5" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="158" t="s">
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="186" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="160"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="167"/>
+      <c r="W5" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="X5" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y5" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z5" s="87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="105">
+      <c r="D6" s="131"/>
+      <c r="E6" s="104">
         <v>0</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="122">
         <v>0</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="122">
         <v>0</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="124">
         <v>1</v>
       </c>
-      <c r="I6" s="108">
+      <c r="I6" s="105">
         <v>1</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="158" t="s">
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="167"/>
+      <c r="W6" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="X6" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y6" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z6" s="87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="134">
         <v>0</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="132">
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="148">
         <v>0</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="152" t="s">
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
       <c r="T7" s="154"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="136"/>
+      <c r="W7" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="X7" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y7" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z7" s="87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="166"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
       <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="172" t="s">
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="156"/>
+      <c r="W8" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="X8" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y8" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z8" s="87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="146" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="105">
+      <c r="D9" s="131"/>
+      <c r="E9" s="104">
         <v>0</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="122">
         <v>0</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="122">
         <v>1</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="124">
         <v>1</v>
       </c>
-      <c r="I9" s="108">
+      <c r="I9" s="105">
         <v>0</v>
       </c>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="162" t="s">
+      <c r="K9" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="160"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="167"/>
+      <c r="W9" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="X9" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y9" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z9" s="87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="105">
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="104">
         <v>0</v>
       </c>
-      <c r="F10" s="106">
+      <c r="F10" s="122">
         <v>0</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="122">
         <v>1</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="124">
         <v>1</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="106">
         <v>1</v>
       </c>
-      <c r="J10" s="182" t="s">
+      <c r="J10" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="183"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="137" t="s">
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="169"/>
+      <c r="W10" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="X10" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y10" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z10" s="87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="134">
         <v>0</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="132">
         <v>1</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="132">
         <v>0</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="148">
         <v>0</v>
       </c>
-      <c r="I11" s="163" t="s">
+      <c r="I11" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="152" t="s">
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
       <c r="T11" s="154"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="136"/>
+      <c r="W11" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="X11" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y11" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z11" s="87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="139"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="166"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
       <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="157"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="156"/>
+      <c r="W12" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="X12" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y12" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z12" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="134">
         <v>0</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="132">
         <v>1</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="132">
         <v>0</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="148">
         <v>1</v>
       </c>
-      <c r="I13" s="163" t="s">
+      <c r="I13" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="152" t="s">
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
       <c r="T13" s="154"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="136"/>
+      <c r="W13" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="X13" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y13" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z13" s="87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="166"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
       <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="157"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="156"/>
+      <c r="W14" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="X14" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y14" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z14" s="87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="132">
         <v>1</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="148">
         <v>1</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="152" t="s">
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="152" t="s">
+      <c r="M15" s="143"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="152" t="s">
+      <c r="P15" s="143"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="153"/>
+      <c r="S15" s="143"/>
       <c r="T15" s="154"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="180"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="180"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="136"/>
+      <c r="W15" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="X15" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y15" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z15" s="87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="171"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="163"/>
+      <c r="W16" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="X16" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y16" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z16" s="87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="171"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="158"/>
+      <c r="T17" s="163"/>
+      <c r="W17" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="X17" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y17" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z17" s="87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="166"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
       <c r="L18" s="155"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="166"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="155"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="166"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="147"/>
       <c r="R18" s="155"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="157"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="S18" s="146"/>
+      <c r="T18" s="156"/>
+      <c r="W18" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="X18" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y18" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z18" s="87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="188">
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="177">
         <v>1</v>
       </c>
-      <c r="F19" s="163" t="s">
+      <c r="F19" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="152" t="s">
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="153"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="152" t="s">
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
       <c r="T19" s="154"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="180"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="180"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="180"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="180"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="180"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="180"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="180"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="180"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="180"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="180"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="180"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="180"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="180"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="171"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="158"/>
+      <c r="T20" s="163"/>
+      <c r="W20" s="87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="171"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="158"/>
+      <c r="T21" s="163"/>
+      <c r="W21" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="X21" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y21" s="88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="171"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="163"/>
+      <c r="W22" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="171"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="163"/>
+      <c r="W23" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="171"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="163"/>
+      <c r="W24" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="171"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="163"/>
+      <c r="W25" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" s="87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="171"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="163"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="171"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="163"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="171"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="163"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="171"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="163"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="171"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="163"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="171"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="163"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="158"/>
+      <c r="T32" s="163"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="180"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="163"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="181"/>
+      <c r="A34" s="174"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="161"/>
+      <c r="S34" s="161"/>
+      <c r="T34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M11:T12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J19:L34"/>
+    <mergeCell ref="M19:T34"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="J10:T10"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="L15:N18"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="R15:T18"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="E19:E34"/>
+    <mergeCell ref="F19:I34"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C6:D6"/>
@@ -5698,48 +6075,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="M11:T12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J19:L34"/>
-    <mergeCell ref="M19:T34"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="J10:T10"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="L15:N18"/>
-    <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="R15:T18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="E19:E34"/>
-    <mergeCell ref="F19:I34"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6278,8 +6613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,16 +6647,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="113">
+      <c r="A2" s="108">
         <v>0</v>
       </c>
-      <c r="B2" s="114">
+      <c r="B2" s="109">
         <v>0</v>
       </c>
-      <c r="C2" s="114">
+      <c r="C2" s="109">
         <v>0</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="110">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -6335,16 +6670,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="116">
+      <c r="A3" s="111">
         <v>0</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="112">
         <v>0</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="112">
         <v>0</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="113">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -6358,16 +6693,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="116">
+      <c r="A4" s="111">
         <v>0</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="112">
         <v>0</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="112">
         <v>1</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4" s="113">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -6381,16 +6716,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119">
+      <c r="A5" s="114">
         <v>0</v>
       </c>
-      <c r="B5" s="120">
+      <c r="B5" s="115">
         <v>0</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="115">
         <v>1</v>
       </c>
-      <c r="D5" s="121">
+      <c r="D5" s="116">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -6404,16 +6739,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="113">
+      <c r="A6" s="108">
         <v>0</v>
       </c>
-      <c r="B6" s="114">
+      <c r="B6" s="109">
         <v>1</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="109">
         <v>0</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="110">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -6427,16 +6762,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="116">
+      <c r="A7" s="111">
         <v>0</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="112">
         <v>1</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="112">
         <v>0</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7" s="113">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -6450,16 +6785,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="116">
+      <c r="A8" s="111">
         <v>0</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="112">
         <v>1</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="112">
         <v>1</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="113">
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -6473,16 +6808,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="119">
+      <c r="A9" s="114">
         <v>0</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="115">
         <v>1</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="115">
         <v>1</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="116">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -6496,16 +6831,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="113">
+      <c r="A10" s="108">
         <v>1</v>
       </c>
-      <c r="B10" s="114">
+      <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="114">
+      <c r="C10" s="109">
         <v>0</v>
       </c>
-      <c r="D10" s="115">
+      <c r="D10" s="110">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -6519,16 +6854,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="116">
+      <c r="A11" s="111">
         <v>1</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="112">
         <v>0</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="112">
         <v>0</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="113">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -6542,16 +6877,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="116">
+      <c r="A12" s="111">
         <v>1</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="112">
         <v>0</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="112">
         <v>1</v>
       </c>
-      <c r="D12" s="118">
+      <c r="D12" s="113">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -6565,16 +6900,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119">
+      <c r="A13" s="114">
         <v>1</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="115">
         <v>0</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="115">
         <v>1</v>
       </c>
-      <c r="D13" s="121">
+      <c r="D13" s="116">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -6588,16 +6923,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="122">
+      <c r="A14" s="117">
         <v>1</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="118">
         <v>1</v>
       </c>
-      <c r="C14" s="123">
+      <c r="C14" s="118">
         <v>0</v>
       </c>
-      <c r="D14" s="124">
+      <c r="D14" s="119">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -6611,16 +6946,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="116">
+      <c r="A15" s="111">
         <v>1</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="112">
         <v>1</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="112">
         <v>0</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D15" s="113">
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -6634,16 +6969,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="116">
+      <c r="A16" s="111">
         <v>1</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="112">
         <v>1</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="112">
         <v>1</v>
       </c>
-      <c r="D16" s="118">
+      <c r="D16" s="113">
         <v>0</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -6657,16 +6992,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="119">
+      <c r="A17" s="114">
         <v>1</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="115">
         <v>1</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="115">
         <v>1</v>
       </c>
-      <c r="D17" s="121">
+      <c r="D17" s="116">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B3F69-375A-4892-85C5-E967AC78A135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA0589-829D-4C8C-A995-FCD90AFB1D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -2261,192 +2261,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2456,13 +2270,67 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2473,6 +2341,138 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4775,7 +4775,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20:Y25"/>
+      <selection activeCell="X21" sqref="X21:X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,12 +4787,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4870,24 +4870,24 @@
       <c r="I2" s="100">
         <v>0</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="181" t="s">
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182" t="s">
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="W2" s="87" t="s">
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="V2" s="87" t="s">
         <v>81</v>
       </c>
       <c r="Y2" s="87" t="s">
@@ -4922,27 +4922,27 @@
       <c r="I3" s="105">
         <v>1</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="184" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128" t="s">
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="185"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
+      <c r="V3" s="87" t="s">
+        <v>268</v>
+      </c>
       <c r="W3" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="X3" s="87" t="s">
         <v>284</v>
       </c>
       <c r="Y3" s="87" t="s">
@@ -4956,11 +4956,11 @@
       <c r="A4" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="104">
         <v>0</v>
       </c>
@@ -4979,26 +4979,26 @@
       <c r="J4" s="120">
         <v>0</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="184" t="s">
+      <c r="L4" s="195"/>
+      <c r="M4" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128" t="s">
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="185"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="171"/>
+      <c r="V4" s="87" t="s">
+        <v>269</v>
+      </c>
       <c r="W4" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="X4" s="87" t="s">
         <v>285</v>
       </c>
       <c r="Y4" s="87" t="s">
@@ -5009,12 +5009,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="149" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="104">
         <v>0</v>
       </c>
@@ -5033,26 +5033,26 @@
       <c r="J5" s="124">
         <v>1</v>
       </c>
-      <c r="K5" s="165" t="s">
+      <c r="K5" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="186" t="s">
+      <c r="L5" s="161"/>
+      <c r="M5" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="186" t="s">
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="167"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="160"/>
+      <c r="V5" s="87" t="s">
+        <v>270</v>
+      </c>
       <c r="W5" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="X5" s="87" t="s">
         <v>286</v>
       </c>
       <c r="Y5" s="87" t="s">
@@ -5063,14 +5063,14 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="130" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="104">
         <v>0</v>
       </c>
@@ -5089,24 +5089,24 @@
       <c r="J6" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="186" t="s">
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="167"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
+      <c r="V6" s="87" t="s">
+        <v>271</v>
+      </c>
       <c r="W6" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="X6" s="87" t="s">
         <v>287</v>
       </c>
       <c r="Y6" s="87" t="s">
@@ -5117,44 +5117,44 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="134">
         <v>0</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="131">
         <v>0</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
-      <c r="H7" s="148">
+      <c r="H7" s="128">
         <v>0</v>
       </c>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="153" t="s">
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
       <c r="T7" s="154"/>
+      <c r="V7" s="87" t="s">
+        <v>272</v>
+      </c>
       <c r="W7" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="X7" s="87" t="s">
         <v>288</v>
       </c>
       <c r="Y7" s="87" t="s">
@@ -5165,30 +5165,30 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="135"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="147"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="166"/>
       <c r="M8" s="155"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="157"/>
+      <c r="V8" s="87" t="s">
+        <v>273</v>
+      </c>
       <c r="W8" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="X8" s="87" t="s">
         <v>289</v>
       </c>
       <c r="Y8" s="87" t="s">
@@ -5199,14 +5199,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="130" t="s">
+      <c r="B9" s="173"/>
+      <c r="C9" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="131"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="104">
         <v>0</v>
       </c>
@@ -5225,22 +5225,22 @@
       <c r="J9" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="165" t="s">
+      <c r="K9" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="167"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="160"/>
+      <c r="V9" s="87" t="s">
+        <v>274</v>
+      </c>
       <c r="W9" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="X9" s="87" t="s">
         <v>290</v>
       </c>
       <c r="Y9" s="87" t="s">
@@ -5251,12 +5251,12 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="131"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="104">
         <v>0</v>
       </c>
@@ -5272,23 +5272,23 @@
       <c r="I10" s="106">
         <v>1</v>
       </c>
-      <c r="J10" s="168" t="s">
+      <c r="J10" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="169"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="183"/>
+      <c r="V10" s="87" t="s">
+        <v>275</v>
+      </c>
       <c r="W10" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="X10" s="87" t="s">
         <v>291</v>
       </c>
       <c r="Y10" s="87" t="s">
@@ -5299,44 +5299,44 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="134">
         <v>0</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="131">
         <v>1</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="131">
         <v>0</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="128">
         <v>0</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="153" t="s">
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
       <c r="T11" s="154"/>
+      <c r="V11" s="87" t="s">
+        <v>276</v>
+      </c>
       <c r="W11" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="X11" s="87" t="s">
         <v>292</v>
       </c>
       <c r="Y11" s="87" t="s">
@@ -5347,30 +5347,30 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="135"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="166"/>
       <c r="M12" s="155"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="157"/>
+      <c r="V12" s="87" t="s">
+        <v>277</v>
+      </c>
       <c r="W12" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="X12" s="87" t="s">
         <v>299</v>
       </c>
       <c r="Y12" s="87" t="s">
@@ -5381,44 +5381,44 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="134">
         <v>0</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="131">
         <v>1</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="131">
         <v>0</v>
       </c>
-      <c r="H13" s="148">
+      <c r="H13" s="128">
         <v>1</v>
       </c>
-      <c r="I13" s="142" t="s">
+      <c r="I13" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="153" t="s">
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
       <c r="T13" s="154"/>
+      <c r="V13" s="87" t="s">
+        <v>278</v>
+      </c>
       <c r="W13" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="X13" s="87" t="s">
         <v>293</v>
       </c>
       <c r="Y13" s="87" t="s">
@@ -5429,30 +5429,30 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="135"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="147"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="166"/>
       <c r="M14" s="155"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="157"/>
+      <c r="V14" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="W14" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="X14" s="87" t="s">
         <v>294</v>
       </c>
       <c r="Y14" s="87" t="s">
@@ -5463,46 +5463,46 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F15" s="131">
         <v>1</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="128">
         <v>1</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="153" t="s">
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="153" t="s">
+      <c r="M15" s="153"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="153" t="s">
+      <c r="P15" s="153"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="143"/>
+      <c r="S15" s="153"/>
       <c r="T15" s="154"/>
+      <c r="V15" s="87" t="s">
+        <v>280</v>
+      </c>
       <c r="W15" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="X15" s="87" t="s">
         <v>295</v>
       </c>
       <c r="Y15" s="87" t="s">
@@ -5513,30 +5513,30 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="163"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="180"/>
+      <c r="V16" s="87" t="s">
+        <v>281</v>
+      </c>
       <c r="W16" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="X16" s="87" t="s">
         <v>296</v>
       </c>
       <c r="Y16" s="87" t="s">
@@ -5547,30 +5547,30 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="163"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="180"/>
+      <c r="V17" s="87" t="s">
+        <v>282</v>
+      </c>
       <c r="W17" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="X17" s="87" t="s">
         <v>297</v>
       </c>
       <c r="Y17" s="87" t="s">
@@ -5581,30 +5581,30 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="135"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="155"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="166"/>
       <c r="O18" s="155"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="147"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="166"/>
       <c r="R18" s="155"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="157"/>
+      <c r="V18" s="87" t="s">
+        <v>283</v>
+      </c>
       <c r="W18" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="X18" s="87" t="s">
         <v>298</v>
       </c>
       <c r="Y18" s="87" t="s">
@@ -5615,434 +5615,424 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="177">
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="188">
         <v>1</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="153" t="s">
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="153" t="s">
+      <c r="K19" s="153"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
       <c r="T19" s="154"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="163"/>
-      <c r="W20" s="87" t="s">
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="180"/>
+      <c r="V20" s="87" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="171"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="163"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="180"/>
+      <c r="V21" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="W21" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="Y21" s="88" t="s">
+      <c r="X21" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="163"/>
-      <c r="W22" s="88" t="s">
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="180"/>
+      <c r="V22" s="88" t="s">
         <v>225</v>
       </c>
+      <c r="W22" s="87" t="s">
+        <v>57</v>
+      </c>
       <c r="X22" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y22" s="87" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="163"/>
-      <c r="W23" s="88" t="s">
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="180"/>
+      <c r="V23" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="X23" s="87" t="s">
+      <c r="W23" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="163"/>
-      <c r="W24" s="88" t="s">
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="180"/>
+      <c r="V24" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="X24" s="87" t="s">
+      <c r="W24" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="171"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="163"/>
-      <c r="W25" s="88" t="s">
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="180"/>
+      <c r="V25" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="X25" s="87" t="s">
+      <c r="W25" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="163"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="180"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="163"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="180"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="163"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="180"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="163"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="180"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="171"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="163"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="180"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="163"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="180"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="163"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="180"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="163"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="180"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="174"/>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="161"/>
-      <c r="T34" s="164"/>
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:L12"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="M11:T12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
@@ -6059,22 +6049,32 @@
     <mergeCell ref="A19:D34"/>
     <mergeCell ref="E19:E34"/>
     <mergeCell ref="F19:I34"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA0589-829D-4C8C-A995-FCD90AFB1D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819E4ED-1156-4FD7-903B-EFB23B7C0F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="301">
   <si>
     <t>S3</t>
   </si>
@@ -676,9 +676,6 @@
     <t>ADR C + GPR C</t>
   </si>
   <si>
-    <t>sc[4]</t>
-  </si>
-  <si>
     <t>ADR C + Imm6</t>
   </si>
   <si>
@@ -929,6 +926,12 @@
   </si>
   <si>
     <t>VC</t>
+  </si>
+  <si>
+    <t>sc[2]</t>
+  </si>
+  <si>
+    <t>sc[3]</t>
   </si>
 </sst>
 </file>
@@ -2261,6 +2264,192 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2270,67 +2459,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,138 +2476,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3098,7 +3101,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>92</v>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="59"/>
@@ -3190,14 +3193,14 @@
         <v>67</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="43"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>87</v>
@@ -3229,7 +3232,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>99</v>
@@ -3372,7 +3375,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -3386,7 +3389,7 @@
         <v>86</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3411,7 +3414,7 @@
         <v>86</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3425,7 @@
         <v>106</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -3436,7 +3439,7 @@
         <v>49</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3447,7 +3450,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -3461,13 +3464,13 @@
         <v>80</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>175</v>
@@ -3487,18 +3490,18 @@
         <v>86</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -3509,7 +3512,7 @@
         <v>67</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3530,7 +3533,7 @@
         <v>49</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3568,7 +3571,7 @@
         <v>80</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3593,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
         <v>175</v>
@@ -3711,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489E50B-F7AE-40DA-B3EF-ED84A344FCCC}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,7 +3836,7 @@
         <v>162</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P3" s="46">
         <v>1</v>
@@ -3843,13 +3846,13 @@
       </c>
       <c r="R3" s="47"/>
       <c r="S3" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T3" s="87" t="s">
         <v>57</v>
       </c>
       <c r="U3" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3880,7 +3883,7 @@
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T4" s="87" t="s">
         <v>55</v>
@@ -3922,7 +3925,7 @@
       </c>
       <c r="R5" s="47"/>
       <c r="S5" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T5" s="87" t="s">
         <v>54</v>
@@ -3966,7 +3969,7 @@
         <v>144</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T6" s="87" t="s">
         <v>56</v>
@@ -4011,7 +4014,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>161</v>
@@ -4221,7 +4224,7 @@
         <v>162</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>162</v>
@@ -4295,16 +4298,16 @@
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>201</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G18" s="57" t="s">
         <v>153</v>
@@ -4449,15 +4452,15 @@
         <v>166</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" s="78" t="s">
         <v>189</v>
@@ -4511,14 +4514,14 @@
         <v>173</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D25" s="83"/>
       <c r="E25" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" s="79" t="s">
         <v>162</v>
@@ -4539,14 +4542,14 @@
         <v>173</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="75" t="s">
         <v>205</v>
       </c>
       <c r="D26" s="76"/>
       <c r="E26" s="75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="77" t="s">
         <v>162</v>
@@ -4588,10 +4591,10 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="65" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="E30" s="54" t="s">
         <v>211</v>
@@ -4694,7 +4697,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="54" t="s">
         <v>201</v>
@@ -4717,10 +4720,10 @@
         <v>90</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="83" t="s">
         <v>149</v>
@@ -4731,10 +4734,10 @@
         <v>100</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="83" t="s">
         <v>149</v>
@@ -4745,10 +4748,10 @@
         <v>98</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="76" t="s">
         <v>150</v>
@@ -4774,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660B940-324A-409A-9742-8BFC9B3A5F3A}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X21" sqref="X21:X22"/>
     </sheetView>
   </sheetViews>
@@ -4787,12 +4790,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="187" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4844,16 +4847,16 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="C2" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="D2" s="97" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="97" t="s">
-        <v>240</v>
       </c>
       <c r="E2" s="98">
         <v>0</v>
@@ -4870,23 +4873,23 @@
       <c r="I2" s="100">
         <v>0</v>
       </c>
-      <c r="J2" s="192" t="s">
+      <c r="J2" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="167" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168" t="s">
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
       <c r="V2" s="87" t="s">
         <v>81</v>
       </c>
@@ -4922,31 +4925,31 @@
       <c r="I3" s="105">
         <v>1</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="161" t="s">
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170" t="s">
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="185"/>
       <c r="V3" s="87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W3" s="87" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y3" s="87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z3" s="87" t="s">
         <v>8</v>
@@ -4956,11 +4959,11 @@
       <c r="A4" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="104">
         <v>0</v>
       </c>
@@ -4979,42 +4982,42 @@
       <c r="J4" s="120">
         <v>0</v>
       </c>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="195"/>
-      <c r="M4" s="161" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170" t="s">
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="171"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="185"/>
       <c r="V4" s="87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W4" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y4" s="87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z4" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="A5" s="193" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
       <c r="E5" s="104">
         <v>0</v>
       </c>
@@ -5033,44 +5036,44 @@
       <c r="J5" s="124">
         <v>1</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="158" t="s">
+      <c r="L5" s="184"/>
+      <c r="M5" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="158" t="s">
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="186" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="160"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="167"/>
       <c r="V5" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W5" s="87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y5" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z5" s="87" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="104">
         <v>0</v>
       </c>
@@ -5089,124 +5092,124 @@
       <c r="J6" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="158" t="s">
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="167"/>
       <c r="V6" s="87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W6" s="87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y6" s="87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z6" s="87" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="134">
         <v>0</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="132">
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="148">
         <v>0</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="152" t="s">
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
       <c r="T7" s="154"/>
       <c r="V7" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W7" s="87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y7" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z7" s="87" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="136"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="166"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
       <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="156"/>
       <c r="V8" s="87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W8" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y8" s="87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z8" s="87" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="146" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="148"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="104">
         <v>0</v>
       </c>
@@ -5225,38 +5228,38 @@
       <c r="J9" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="162" t="s">
+      <c r="K9" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="160"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="167"/>
       <c r="V9" s="87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W9" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y9" s="87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z9" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
+      <c r="A10" s="150" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="104">
         <v>0</v>
       </c>
@@ -5272,426 +5275,426 @@
       <c r="I10" s="106">
         <v>1</v>
       </c>
-      <c r="J10" s="182" t="s">
+      <c r="J10" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="183"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="169"/>
       <c r="V10" s="87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W10" s="87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y10" s="87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z10" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="134">
         <v>0</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="132">
         <v>1</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="132">
         <v>0</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="148">
         <v>0</v>
       </c>
-      <c r="I11" s="163" t="s">
+      <c r="I11" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="152" t="s">
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
       <c r="T11" s="154"/>
       <c r="V11" s="87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W11" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y11" s="87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z11" s="87" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="136"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="166"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
       <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="157"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="156"/>
       <c r="V12" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W12" s="87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y12" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z12" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="134">
         <v>0</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="132">
         <v>1</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="132">
         <v>0</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="148">
         <v>1</v>
       </c>
-      <c r="I13" s="163" t="s">
+      <c r="I13" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="152" t="s">
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
       <c r="T13" s="154"/>
       <c r="V13" s="87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W13" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y13" s="87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z13" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="136"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="166"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
       <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="157"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="156"/>
       <c r="V14" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W14" s="87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y14" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="132">
         <v>1</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="148">
         <v>1</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="152" t="s">
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="152" t="s">
+      <c r="M15" s="143"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="152" t="s">
+      <c r="P15" s="143"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="153"/>
+      <c r="S15" s="143"/>
       <c r="T15" s="154"/>
       <c r="V15" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W15" s="87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y15" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z15" s="87" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="180"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="163"/>
       <c r="V16" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W16" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y16" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z16" s="87" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="180"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="158"/>
+      <c r="T17" s="163"/>
       <c r="V17" s="87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W17" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y17" s="87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z17" s="87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="136"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="166"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
       <c r="L18" s="155"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="166"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
       <c r="O18" s="155"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="166"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="147"/>
       <c r="R18" s="155"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="157"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="156"/>
       <c r="V18" s="87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W18" s="87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y18" s="87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z18" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="188">
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="177">
         <v>1</v>
       </c>
-      <c r="F19" s="163" t="s">
+      <c r="F19" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="152" t="s">
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="153"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="152" t="s">
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
       <c r="T19" s="154"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="180"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="158"/>
+      <c r="T20" s="163"/>
       <c r="V20" s="87" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="180"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="158"/>
+      <c r="T21" s="163"/>
       <c r="V21" s="87" t="s">
         <v>58</v>
       </c>
@@ -5703,320 +5706,362 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="180"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="163"/>
       <c r="V22" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W22" s="87" t="s">
         <v>57</v>
       </c>
       <c r="X22" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="180"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="163"/>
       <c r="V23" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W23" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="180"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="163"/>
       <c r="V24" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W24" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="180"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="163"/>
       <c r="V25" s="88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W25" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="180"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="163"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="180"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="163"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="180"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="163"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="180"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="163"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="180"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="163"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="180"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="163"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="180"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="158"/>
+      <c r="T32" s="163"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="180"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="163"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="181"/>
+      <c r="A34" s="174"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="161"/>
+      <c r="S34" s="161"/>
+      <c r="T34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M11:T12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J19:L34"/>
+    <mergeCell ref="M19:T34"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="J10:T10"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="L15:N18"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="R15:T18"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="E19:E34"/>
+    <mergeCell ref="F19:I34"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C6:D6"/>
@@ -6033,48 +6078,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="M11:T12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J19:L34"/>
-    <mergeCell ref="M19:T34"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="J10:T10"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="L15:N18"/>
-    <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="R15:T18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="E19:E34"/>
-    <mergeCell ref="F19:I34"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6141,26 +6144,26 @@
         <v>41</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="G3" s="37"/>
       <c r="J3" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K3" s="87" t="s">
         <v>57</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N3" s="17"/>
     </row>
@@ -6169,20 +6172,20 @@
         <v>42</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>249</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="G4" s="37"/>
       <c r="J4" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K4" s="87" t="s">
         <v>55</v>
@@ -6198,14 +6201,14 @@
         <v>44</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="J5" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K5" s="87" t="s">
         <v>54</v>
@@ -6221,14 +6224,14 @@
         <v>44</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="J6" s="88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" s="87" t="s">
         <v>56</v>
@@ -6241,7 +6244,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>47</v>
@@ -6254,10 +6257,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="5"/>
@@ -6286,10 +6289,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10">
@@ -6305,10 +6308,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6323,7 +6326,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12">
@@ -6339,10 +6342,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6358,10 +6361,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>251</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>252</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14">
@@ -6374,10 +6377,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15">
@@ -6390,10 +6393,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16">
@@ -6406,10 +6409,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17">
@@ -6422,10 +6425,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18">
@@ -6437,10 +6440,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19">
@@ -6449,13 +6452,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20">
@@ -6464,13 +6467,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21">
@@ -6482,10 +6485,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22">
@@ -6497,10 +6500,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23">
@@ -6512,10 +6515,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24">
@@ -6524,13 +6527,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25">
@@ -6542,10 +6545,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26">
@@ -6557,10 +6560,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27">
@@ -6572,10 +6575,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28">
@@ -6587,10 +6590,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>251</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>252</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29">
@@ -6752,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>33</v>
@@ -6775,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>34</v>
@@ -6798,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>9</v>
@@ -6821,10 +6824,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>17</v>
@@ -6916,7 +6919,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>17</v>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819E4ED-1156-4FD7-903B-EFB23B7C0F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D762DE13-89B1-40F8-969C-CB9D4993DB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="301">
   <si>
     <t>S3</t>
   </si>
@@ -2264,192 +2264,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2459,13 +2273,67 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2476,6 +2344,138 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2777,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587EB1-1C15-4BDC-B095-DE818FDD326C}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,7 +3715,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4384,7 +4384,7 @@
         <v>161</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -4416,7 +4416,7 @@
         <v>162</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>166</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4483,6 +4483,12 @@
       </c>
       <c r="J23" s="83" t="s">
         <v>161</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -4623,7 +4629,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4638,7 +4644,7 @@
         <v>54</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,7 +4659,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,7 +4676,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4685,7 +4691,7 @@
         <v>56</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4790,12 +4796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4873,23 +4879,23 @@
       <c r="I2" s="100">
         <v>0</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="181" t="s">
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182" t="s">
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
       <c r="V2" s="87" t="s">
         <v>81</v>
       </c>
@@ -4925,23 +4931,23 @@
       <c r="I3" s="105">
         <v>1</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="184" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128" t="s">
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="185"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
       <c r="V3" s="87" t="s">
         <v>267</v>
       </c>
@@ -4959,11 +4965,11 @@
       <c r="A4" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="104">
         <v>0</v>
       </c>
@@ -4982,22 +4988,22 @@
       <c r="J4" s="120">
         <v>0</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="184" t="s">
+      <c r="L4" s="195"/>
+      <c r="M4" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128" t="s">
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="185"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="171"/>
       <c r="V4" s="87" t="s">
         <v>268</v>
       </c>
@@ -5012,12 +5018,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="149" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="104">
         <v>0</v>
       </c>
@@ -5036,22 +5042,22 @@
       <c r="J5" s="124">
         <v>1</v>
       </c>
-      <c r="K5" s="165" t="s">
+      <c r="K5" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="186" t="s">
+      <c r="L5" s="161"/>
+      <c r="M5" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="186" t="s">
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="167"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="160"/>
       <c r="V5" s="87" t="s">
         <v>269</v>
       </c>
@@ -5066,14 +5072,14 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="130" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="104">
         <v>0</v>
       </c>
@@ -5092,20 +5098,20 @@
       <c r="J6" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="186" t="s">
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="167"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
       <c r="V6" s="87" t="s">
         <v>270</v>
       </c>
@@ -5120,39 +5126,39 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="134">
         <v>0</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="131">
         <v>0</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
-      <c r="H7" s="148">
+      <c r="H7" s="128">
         <v>0</v>
       </c>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="153" t="s">
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
       <c r="T7" s="154"/>
       <c r="V7" s="87" t="s">
         <v>271</v>
@@ -5168,26 +5174,26 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="135"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="147"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="166"/>
       <c r="M8" s="155"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="157"/>
       <c r="V8" s="87" t="s">
         <v>272</v>
       </c>
@@ -5202,14 +5208,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="130" t="s">
+      <c r="B9" s="173"/>
+      <c r="C9" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="131"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="104">
         <v>0</v>
       </c>
@@ -5228,18 +5234,18 @@
       <c r="J9" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="165" t="s">
+      <c r="K9" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="167"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="160"/>
       <c r="V9" s="87" t="s">
         <v>273</v>
       </c>
@@ -5254,12 +5260,12 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="172" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="131"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="104">
         <v>0</v>
       </c>
@@ -5275,19 +5281,19 @@
       <c r="I10" s="106">
         <v>1</v>
       </c>
-      <c r="J10" s="168" t="s">
+      <c r="J10" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="169"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="183"/>
       <c r="V10" s="87" t="s">
         <v>274</v>
       </c>
@@ -5302,39 +5308,39 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="134">
         <v>0</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="131">
         <v>1</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="131">
         <v>0</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="128">
         <v>0</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="153" t="s">
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
       <c r="T11" s="154"/>
       <c r="V11" s="87" t="s">
         <v>275</v>
@@ -5350,26 +5356,26 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="135"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="166"/>
       <c r="M12" s="155"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="157"/>
       <c r="V12" s="87" t="s">
         <v>276</v>
       </c>
@@ -5384,39 +5390,39 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="134">
         <v>0</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="131">
         <v>1</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="131">
         <v>0</v>
       </c>
-      <c r="H13" s="148">
+      <c r="H13" s="128">
         <v>1</v>
       </c>
-      <c r="I13" s="142" t="s">
+      <c r="I13" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="153" t="s">
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
       <c r="T13" s="154"/>
       <c r="V13" s="87" t="s">
         <v>277</v>
@@ -5432,26 +5438,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="135"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="147"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="166"/>
       <c r="M14" s="155"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="157"/>
       <c r="V14" s="87" t="s">
         <v>278</v>
       </c>
@@ -5466,41 +5472,41 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F15" s="131">
         <v>1</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="128">
         <v>1</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="153" t="s">
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="153" t="s">
+      <c r="M15" s="153"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="153" t="s">
+      <c r="P15" s="153"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="143"/>
+      <c r="S15" s="153"/>
       <c r="T15" s="154"/>
       <c r="V15" s="87" t="s">
         <v>279</v>
@@ -5516,26 +5522,26 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="163"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="180"/>
       <c r="V16" s="87" t="s">
         <v>280</v>
       </c>
@@ -5550,26 +5556,26 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="163"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="180"/>
       <c r="V17" s="87" t="s">
         <v>281</v>
       </c>
@@ -5584,26 +5590,26 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="135"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="166"/>
       <c r="L18" s="155"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="166"/>
       <c r="O18" s="155"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="147"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="166"/>
       <c r="R18" s="155"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="157"/>
       <c r="V18" s="87" t="s">
         <v>282</v>
       </c>
@@ -5618,83 +5624,83 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="177">
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="188">
         <v>1</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="153" t="s">
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="153" t="s">
+      <c r="K19" s="153"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
       <c r="T19" s="154"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="163"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="180"/>
       <c r="V20" s="87" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="171"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="163"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="180"/>
       <c r="V21" s="87" t="s">
         <v>58</v>
       </c>
@@ -5706,26 +5712,26 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="163"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="180"/>
       <c r="V22" s="88" t="s">
         <v>224</v>
       </c>
@@ -5737,26 +5743,26 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="163"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="180"/>
       <c r="V23" s="88" t="s">
         <v>225</v>
       </c>
@@ -5765,26 +5771,26 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="163"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="180"/>
       <c r="V24" s="88" t="s">
         <v>226</v>
       </c>
@@ -5793,26 +5799,26 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="171"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="163"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="180"/>
       <c r="V25" s="88" t="s">
         <v>227</v>
       </c>
@@ -5821,231 +5827,221 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="163"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="180"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="163"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="180"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="163"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="180"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="163"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="180"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="171"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="163"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="180"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="163"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="180"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="163"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="180"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="163"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="180"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="174"/>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="161"/>
-      <c r="T34" s="164"/>
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:L12"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="M11:T12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
@@ -6062,22 +6058,32 @@
     <mergeCell ref="A19:D34"/>
     <mergeCell ref="E19:E34"/>
     <mergeCell ref="F19:I34"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6617,7 +6623,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D762DE13-89B1-40F8-969C-CB9D4993DB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7713A64-5055-4619-BB68-EC101CD0C5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="304">
   <si>
     <t>S3</t>
   </si>
@@ -664,9 +664,6 @@
     <t>AB  &lt;- AR+Imm6</t>
   </si>
   <si>
-    <t>AB[3]</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
@@ -790,9 +787,6 @@
     <t>Ad &lt;- DB</t>
   </si>
   <si>
-    <t>#ADL|#ADH</t>
-  </si>
-  <si>
     <t>DB &lt;- PC+2*Imm{6, 8, 10}</t>
   </si>
   <si>
@@ -932,13 +926,28 @@
   </si>
   <si>
     <t>sc[3]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>#AdL|#AdH</t>
+  </si>
+  <si>
+    <t>AB[2]</t>
+  </si>
+  <si>
+    <t>Bicc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,14 +992,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1028,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="81">
     <border>
@@ -2014,13 +2035,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2174,15 +2196,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2192,15 +2205,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2209,9 +2213,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2249,20 +2250,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2300,187 +2304,215 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -3101,7 +3133,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>92</v>
@@ -3153,7 +3185,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="59"/>
@@ -3193,14 +3225,14 @@
         <v>67</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="43"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>87</v>
@@ -3232,7 +3264,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>99</v>
@@ -3375,7 +3407,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -3389,7 +3421,7 @@
         <v>86</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3414,7 +3446,7 @@
         <v>86</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3425,7 +3457,7 @@
         <v>106</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -3439,7 +3471,7 @@
         <v>49</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3482,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -3464,13 +3496,13 @@
         <v>80</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>175</v>
@@ -3490,18 +3522,18 @@
         <v>86</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -3512,7 +3544,7 @@
         <v>67</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3533,7 +3565,7 @@
         <v>49</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3571,7 +3603,7 @@
         <v>80</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3593,7 +3625,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
         <v>175</v>
@@ -3712,867 +3744,924 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489E50B-F7AE-40DA-B3EF-ED84A344FCCC}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="46"/>
-    <col min="2" max="2" width="22.5703125" style="46" customWidth="1"/>
-    <col min="3" max="9" width="11.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="4" style="46" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="46" customWidth="1"/>
+    <col min="4" max="9" width="11.140625" style="46" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="46"/>
-    <col min="14" max="14" width="18.28515625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="46"/>
-    <col min="16" max="16" width="10.140625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="10" style="46" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="46"/>
-    <col min="19" max="19" width="9.7109375" style="46" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="46" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C1" s="58" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D1" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="M1" s="46" t="s">
+      <c r="L1" s="51"/>
+      <c r="N1" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="Q1" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="T1" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="87"/>
       <c r="U1" s="87"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="61" t="s">
+      <c r="V1" s="87"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="F2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="G2" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="J2" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="K2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="L2" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="46">
+      <c r="Q2" s="46">
         <v>0</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="R2" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="87" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="87" t="s">
+      <c r="U2" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="88" t="s">
+      <c r="V2" s="88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="71"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="M3" s="46" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="N3" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="P3" s="46">
+      <c r="O3" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="46">
         <v>1</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="47"/>
+      <c r="T3" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="83"/>
+      <c r="N4" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="T3" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="87" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="80" t="s">
+      <c r="U4" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="87"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="78" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="83"/>
+      <c r="N5" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" s="47"/>
+      <c r="T5" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="U5" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="87"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="83"/>
+      <c r="N6" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="U6" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="87"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="83"/>
+      <c r="N7" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="M4" s="46" t="s">
+      <c r="O9" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="R9" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="83"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="G11" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="83"/>
+      <c r="I11" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="83"/>
+      <c r="N11" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="88" t="s">
-        <v>225</v>
-      </c>
-      <c r="T4" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="87"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="80" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="83"/>
-      <c r="M5" s="46" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N15" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="O15" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="T5" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="87"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="Q15" s="46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="83"/>
-      <c r="M6" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" s="46" t="s">
+      <c r="R16" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D17" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="S6" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="T6" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="87"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="80" t="s">
+      <c r="K18" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="M7" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="P9" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="83"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="83"/>
-      <c r="M11" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="K12" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q12" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M14" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M15" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="P16" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q16" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="N17" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="P17" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="P18" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q18" s="46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="B19" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="C19" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="D19" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70" t="s">
-        <v>161</v>
-      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="M19" s="46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="K19" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="C20" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="D20" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="83"/>
+      <c r="F20" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="78" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="83" t="s">
+      <c r="J20" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" s="46" t="s">
+      <c r="K20" s="83" t="s">
         <v>161</v>
       </c>
       <c r="N20" s="46" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="O20" s="46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="C21" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="D21" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="83"/>
+      <c r="F21" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="78" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="I21" s="83" t="s">
+      <c r="J21" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="83" t="s">
+      <c r="K21" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="M21" s="46" t="s">
+      <c r="N21" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="N21" s="46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="83" t="s">
-        <v>161</v>
-      </c>
+      <c r="O21" s="46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="K22" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="N22" s="46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="83" t="s">
+      <c r="O22" s="46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="H23" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="83" t="s">
-        <v>161</v>
-      </c>
+      <c r="I23" s="78"/>
       <c r="J23" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="K23" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="N23" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="N23" s="46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="78" t="s">
+      <c r="O23" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="83" t="s">
+      <c r="E25" s="83"/>
+      <c r="F25" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="79" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="83" t="s">
+      <c r="H25" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="83" t="s">
-        <v>161</v>
-      </c>
+      <c r="I25" s="78"/>
       <c r="J25" s="83" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55" t="s">
+      <c r="K25" s="83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="118" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="F26" s="77" t="s">
+      <c r="E26" s="76"/>
+      <c r="F26" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="H26" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76" t="s">
-        <v>161</v>
-      </c>
+      <c r="I26" s="75"/>
       <c r="J26" s="76" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="K26" s="76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4582,196 +4671,228 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="64" t="s">
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D29" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="E29" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="F29" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="65" t="s">
-        <v>300</v>
-      </c>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="C31" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="84"/>
       <c r="D31" s="84"/>
-      <c r="E31" s="70"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="E31" s="84"/>
+      <c r="F31" s="70"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="C32" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="85"/>
+      <c r="E32" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="F32" s="83" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="C33" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="85"/>
+      <c r="E33" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="F33" s="83" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="85"/>
+      <c r="E34" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="F34" s="83" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="C35" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="D35" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="E35" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="F35" s="83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55" t="s">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="C36" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="F36" s="76" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="49" t="s">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="51"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="52" t="s">
+      <c r="E40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="70"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="70"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="53" t="s">
+      <c r="E43" s="83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="D44" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="E44" s="83" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="53" t="s">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="76" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:K13 C31:E36 C42:D45 C19:E24 C26:E26 G19:J24 G26:J26">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="D3:L13 D31:F36 D42:E45 D26:F26 H26:K26 D19:F24 H19:K24">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(C3))=0</formula>
+      <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:E25 G25:J25">
+  <conditionalFormatting sqref="D25:F25 H25:K25">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C25))=0</formula>
+      <formula>LEN(TRIM(D25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660B940-324A-409A-9742-8BFC9B3A5F3A}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X21" sqref="X21:X22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,12 +4917,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4852,50 +4973,50 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="170" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="171" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="C2" s="171" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="D2" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="98">
+      <c r="E2" s="95">
         <v>0</v>
       </c>
-      <c r="F2" s="121">
+      <c r="F2" s="116">
         <v>0</v>
       </c>
-      <c r="G2" s="121">
+      <c r="G2" s="116">
         <v>0</v>
       </c>
-      <c r="H2" s="99">
+      <c r="H2" s="96">
         <v>0</v>
       </c>
-      <c r="I2" s="100">
+      <c r="I2" s="97">
         <v>0</v>
       </c>
-      <c r="J2" s="192" t="s">
+      <c r="J2" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="167" t="s">
+      <c r="K2" s="167"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168" t="s">
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="148"/>
       <c r="V2" s="87" t="s">
         <v>81</v>
       </c>
@@ -4904,803 +5025,803 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="104">
+      <c r="E3" s="98">
         <v>0</v>
       </c>
-      <c r="F3" s="122">
+      <c r="F3" s="113">
         <v>0</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="113">
         <v>0</v>
       </c>
-      <c r="H3" s="124">
+      <c r="H3" s="114">
         <v>0</v>
       </c>
-      <c r="I3" s="105">
+      <c r="I3" s="99">
         <v>1</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="161" t="s">
+      <c r="K3" s="149"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170" t="s">
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="150"/>
       <c r="V3" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W3" s="87" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Y3" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z3" s="87" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="104">
+      <c r="C4" s="177"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="98">
         <v>0</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="113">
         <v>0</v>
       </c>
-      <c r="G4" s="122">
+      <c r="G4" s="113">
         <v>0</v>
       </c>
-      <c r="H4" s="124">
+      <c r="H4" s="114">
         <v>1</v>
       </c>
-      <c r="I4" s="105">
+      <c r="I4" s="99">
         <v>0</v>
       </c>
-      <c r="J4" s="120">
+      <c r="J4" s="117">
         <v>0</v>
       </c>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="195"/>
-      <c r="M4" s="161" t="s">
+      <c r="L4" s="169"/>
+      <c r="M4" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170" t="s">
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="171"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="150"/>
       <c r="V4" s="87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W4" s="87" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y4" s="87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z4" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="104">
+      <c r="A5" s="179" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="98">
         <v>0</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="113">
         <v>0</v>
       </c>
-      <c r="G5" s="122">
+      <c r="G5" s="113">
         <v>0</v>
       </c>
-      <c r="H5" s="124">
+      <c r="H5" s="114">
         <v>1</v>
       </c>
-      <c r="I5" s="123">
+      <c r="I5" s="115">
         <v>0</v>
       </c>
-      <c r="J5" s="124">
+      <c r="J5" s="114">
         <v>1</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="158" t="s">
+      <c r="L5" s="140"/>
+      <c r="M5" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="158" t="s">
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="160"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="139"/>
       <c r="V5" s="87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="W5" s="87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y5" s="87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z5" s="87" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="183"/>
+      <c r="C6" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="104">
+      <c r="D6" s="178"/>
+      <c r="E6" s="98">
         <v>0</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="113">
         <v>0</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="113">
         <v>0</v>
       </c>
-      <c r="H6" s="124">
+      <c r="H6" s="114">
         <v>1</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="99">
         <v>1</v>
       </c>
-      <c r="J6" s="124" t="s">
+      <c r="J6" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="158" t="s">
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="139"/>
       <c r="V6" s="87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W6" s="87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Y6" s="87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z6" s="87" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="134">
+      <c r="A7" s="184" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="128">
         <v>0</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="125">
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="125">
         <v>1</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="122">
         <v>0</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="152" t="s">
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="154"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="133"/>
       <c r="V7" s="87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="W7" s="87" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Y7" s="87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z7" s="87" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="136"/>
       <c r="V8" s="87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W8" s="87" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Y8" s="87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z8" s="87" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="146" t="s">
+      <c r="B9" s="183"/>
+      <c r="C9" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="104">
+      <c r="D9" s="178"/>
+      <c r="E9" s="98">
         <v>0</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="113">
         <v>0</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="113">
         <v>1</v>
       </c>
-      <c r="H9" s="124">
+      <c r="H9" s="114">
         <v>1</v>
       </c>
-      <c r="I9" s="105">
+      <c r="I9" s="99">
         <v>0</v>
       </c>
-      <c r="J9" s="124" t="s">
+      <c r="J9" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="162" t="s">
+      <c r="K9" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="160"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="139"/>
       <c r="V9" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="W9" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y9" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z9" s="87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="190" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="98">
+        <v>0</v>
+      </c>
+      <c r="F10" s="113">
+        <v>0</v>
+      </c>
+      <c r="G10" s="113">
+        <v>1</v>
+      </c>
+      <c r="H10" s="114">
+        <v>1</v>
+      </c>
+      <c r="I10" s="100">
+        <v>1</v>
+      </c>
+      <c r="J10" s="159" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="160"/>
+      <c r="V10" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="W10" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y10" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z10" s="87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="128">
+        <v>0</v>
+      </c>
+      <c r="F11" s="125">
+        <v>1</v>
+      </c>
+      <c r="G11" s="125">
+        <v>0</v>
+      </c>
+      <c r="H11" s="122">
+        <v>0</v>
+      </c>
+      <c r="I11" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="133"/>
+      <c r="V11" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="W9" s="87" t="s">
+      <c r="W11" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="Y9" s="87" t="s">
+      <c r="Y11" s="87" t="s">
         <v>273</v>
-      </c>
-      <c r="Z9" s="87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="104">
-        <v>0</v>
-      </c>
-      <c r="F10" s="122">
-        <v>0</v>
-      </c>
-      <c r="G10" s="122">
-        <v>1</v>
-      </c>
-      <c r="H10" s="124">
-        <v>1</v>
-      </c>
-      <c r="I10" s="106">
-        <v>1</v>
-      </c>
-      <c r="J10" s="182" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="183"/>
-      <c r="V10" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="W10" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y10" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z10" s="87" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="134">
-        <v>0</v>
-      </c>
-      <c r="F11" s="131">
-        <v>1</v>
-      </c>
-      <c r="G11" s="131">
-        <v>0</v>
-      </c>
-      <c r="H11" s="128">
-        <v>0</v>
-      </c>
-      <c r="I11" s="163" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="152" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="154"/>
-      <c r="V11" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="W11" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y11" s="87" t="s">
-        <v>275</v>
       </c>
       <c r="Z11" s="87" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="157"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="136"/>
       <c r="V12" s="87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="W12" s="87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Y12" s="87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z12" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="134">
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="128">
         <v>0</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="125">
         <v>1</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="125">
         <v>0</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="122">
         <v>1</v>
       </c>
-      <c r="I13" s="163" t="s">
+      <c r="I13" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="152" t="s">
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="154"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="133"/>
       <c r="V13" s="87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="W13" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y13" s="87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Z13" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="157"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="136"/>
       <c r="V14" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="W14" s="87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y14" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Z14" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="134">
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="128">
         <v>0</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="125">
         <v>1</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="122">
         <v>1</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="152" t="s">
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="152" t="s">
+      <c r="M15" s="132"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="152" t="s">
+      <c r="P15" s="132"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="153"/>
-      <c r="T15" s="154"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="133"/>
       <c r="V15" s="87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W15" s="87" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y15" s="87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z15" s="87" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="180"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="157"/>
       <c r="V16" s="87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W16" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y16" s="87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Z16" s="87" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="180"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="157"/>
       <c r="V17" s="87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W17" s="87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y17" s="87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z17" s="87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="157"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="136"/>
       <c r="V18" s="87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W18" s="87" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Y18" s="87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Z18" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="188">
+      <c r="B19" s="185"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="162">
         <v>1</v>
       </c>
-      <c r="F19" s="163" t="s">
+      <c r="F19" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="152" t="s">
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="153"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="152" t="s">
+      <c r="K19" s="132"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="154"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="133"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="180"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="157"/>
       <c r="V20" s="87" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="180"/>
+      <c r="A21" s="193"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="157"/>
       <c r="V21" s="87" t="s">
         <v>58</v>
       </c>
@@ -5712,317 +5833,317 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="180"/>
+      <c r="A22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="157"/>
       <c r="V22" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W22" s="87" t="s">
         <v>57</v>
       </c>
       <c r="X22" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="180"/>
+      <c r="A23" s="193"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="157"/>
       <c r="V23" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W23" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="180"/>
+      <c r="A24" s="193"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="157"/>
       <c r="V24" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W24" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="180"/>
+      <c r="A25" s="193"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="157"/>
       <c r="V25" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W25" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="180"/>
+      <c r="A26" s="193"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="157"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="180"/>
+      <c r="A27" s="193"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="157"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="180"/>
+      <c r="A28" s="193"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="157"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="180"/>
+      <c r="A29" s="193"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="157"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="180"/>
+      <c r="A30" s="193"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="157"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="180"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="157"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="180"/>
+      <c r="A32" s="193"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="157"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="180"/>
+      <c r="A33" s="193"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="157"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="181"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="155"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="155"/>
+      <c r="T34" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -6150,26 +6271,26 @@
         <v>41</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>247</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>248</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="G3" s="37"/>
       <c r="J3" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K3" s="87" t="s">
         <v>57</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N3" s="17"/>
     </row>
@@ -6178,20 +6299,20 @@
         <v>42</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>248</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="G4" s="37"/>
       <c r="J4" s="88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K4" s="87" t="s">
         <v>55</v>
@@ -6207,14 +6328,14 @@
         <v>44</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="J5" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5" s="87" t="s">
         <v>54</v>
@@ -6230,14 +6351,14 @@
         <v>44</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="J6" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K6" s="87" t="s">
         <v>56</v>
@@ -6250,7 +6371,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>47</v>
@@ -6263,10 +6384,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="5"/>
@@ -6295,10 +6416,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10">
@@ -6314,10 +6435,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6332,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12">
@@ -6348,10 +6469,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6367,10 +6488,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>250</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>251</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14">
@@ -6383,10 +6504,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15">
@@ -6399,10 +6520,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16">
@@ -6415,10 +6536,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17">
@@ -6431,10 +6552,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18">
@@ -6446,10 +6567,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19">
@@ -6458,13 +6579,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20">
@@ -6473,13 +6594,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B21" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21">
@@ -6491,10 +6612,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22">
@@ -6506,10 +6627,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23">
@@ -6521,10 +6642,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24">
@@ -6533,13 +6654,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25">
@@ -6551,10 +6672,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26">
@@ -6566,10 +6687,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27">
@@ -6581,10 +6702,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>250</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>251</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28">
@@ -6596,10 +6717,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>250</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>251</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29">
@@ -6656,16 +6777,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="101">
         <v>0</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="102">
         <v>0</v>
       </c>
-      <c r="C2" s="109">
+      <c r="C2" s="102">
         <v>0</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D2" s="103">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -6679,16 +6800,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="111">
+      <c r="A3" s="104">
         <v>0</v>
       </c>
-      <c r="B3" s="112">
+      <c r="B3" s="105">
         <v>0</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="105">
         <v>0</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="106">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -6702,16 +6823,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="111">
+      <c r="A4" s="104">
         <v>0</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="105">
         <v>0</v>
       </c>
-      <c r="C4" s="112">
+      <c r="C4" s="105">
         <v>1</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="106">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -6725,16 +6846,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114">
+      <c r="A5" s="107">
         <v>0</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="108">
         <v>0</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="108">
         <v>1</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="109">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -6748,20 +6869,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="101">
         <v>0</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="102">
         <v>1</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="102">
         <v>0</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="103">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>33</v>
@@ -6771,20 +6892,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="111">
+      <c r="A7" s="104">
         <v>0</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="105">
         <v>1</v>
       </c>
-      <c r="C7" s="112">
+      <c r="C7" s="105">
         <v>0</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="106">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>34</v>
@@ -6794,62 +6915,62 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="111">
+      <c r="A8" s="104">
         <v>0</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="105">
         <v>1</v>
       </c>
-      <c r="C8" s="112">
+      <c r="C8" s="105">
         <v>1</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="106">
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114">
+      <c r="A9" s="107">
         <v>0</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="108">
         <v>1</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="108">
         <v>1</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="109">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="101">
         <v>1</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="102">
         <v>0</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="102">
         <v>0</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="103">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -6863,16 +6984,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="111">
+      <c r="A11" s="104">
         <v>1</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="105">
         <v>0</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="105">
         <v>0</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="106">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -6886,16 +7007,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="111">
+      <c r="A12" s="104">
         <v>1</v>
       </c>
-      <c r="B12" s="112">
+      <c r="B12" s="105">
         <v>0</v>
       </c>
-      <c r="C12" s="112">
+      <c r="C12" s="105">
         <v>1</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="106">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -6909,39 +7030,39 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="114">
+      <c r="A13" s="107">
         <v>1</v>
       </c>
-      <c r="B13" s="115">
+      <c r="B13" s="108">
         <v>0</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="108">
         <v>1</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="109">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="117">
+      <c r="A14" s="110">
         <v>1</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="111">
         <v>1</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="111">
         <v>0</v>
       </c>
-      <c r="D14" s="119">
+      <c r="D14" s="112">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -6955,16 +7076,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="111">
+      <c r="A15" s="104">
         <v>1</v>
       </c>
-      <c r="B15" s="112">
+      <c r="B15" s="105">
         <v>1</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="105">
         <v>0</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="106">
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -6978,16 +7099,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="111">
+      <c r="A16" s="104">
         <v>1</v>
       </c>
-      <c r="B16" s="112">
+      <c r="B16" s="105">
         <v>1</v>
       </c>
-      <c r="C16" s="112">
+      <c r="C16" s="105">
         <v>1</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="106">
         <v>0</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -7001,16 +7122,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114">
+      <c r="A17" s="107">
         <v>1</v>
       </c>
-      <c r="B17" s="115">
+      <c r="B17" s="108">
         <v>1</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="108">
         <v>1</v>
       </c>
-      <c r="D17" s="116">
+      <c r="D17" s="109">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7713A64-5055-4619-BB68-EC101CD0C5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1351863-FE4E-4869-AD35-03B1A6C2653B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="303">
   <si>
     <t>S3</t>
   </si>
@@ -938,9 +938,6 @@
   </si>
   <si>
     <t>AB[2]</t>
-  </si>
-  <si>
-    <t>Bicc</t>
   </si>
 </sst>
 </file>
@@ -2809,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587EB1-1C15-4BDC-B095-DE818FDD326C}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,7 +3744,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4905,7 +4902,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,7 +5245,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="184" t="s">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="B7" s="185"/>
       <c r="C7" s="185"/>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\source\repos\MyCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1351863-FE4E-4869-AD35-03B1A6C2653B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8D6BA-7D1C-4C8D-A7F4-3C10654F1960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="InstSet" sheetId="2" r:id="rId4"/>
     <sheet name="ALU" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="306">
   <si>
     <t>S3</t>
   </si>
@@ -938,6 +938,15 @@
   </si>
   <si>
     <t>AB[2]</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>DB &lt;- Rm op Rn</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -2265,6 +2274,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2301,140 +2328,32 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2454,28 +2373,136 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2485,33 +2512,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="İyi" xfId="3" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Not" xfId="2" builtinId="10"/>
+    <cellStyle name="Nötr" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2806,17 +2815,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587EB1-1C15-4BDC-B095-DE818FDD326C}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>39</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>73</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>75</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>42</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>77</v>
       </c>
@@ -3068,7 +3077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>76</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>43</v>
       </c>
@@ -3128,7 +3137,7 @@
       <c r="I9" s="43"/>
       <c r="J9" s="40"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>231</v>
       </c>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>45</v>
       </c>
@@ -3180,7 +3189,7 @@
       </c>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>232</v>
       </c>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
         <v>101</v>
@@ -3227,7 +3236,7 @@
       <c r="I13" s="43"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>233</v>
       </c>
@@ -3255,7 +3264,7 @@
       <c r="I14" s="43"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
         <v>87</v>
@@ -3281,7 +3290,7 @@
       <c r="I15" s="43"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>46</v>
       </c>
@@ -3305,7 +3314,7 @@
       <c r="I16" s="43"/>
       <c r="J16" s="40"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="s">
         <v>78</v>
       </c>
@@ -3329,7 +3338,7 @@
       <c r="I17" s="43"/>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42" t="s">
         <v>70</v>
       </c>
@@ -3353,12 +3362,12 @@
       <c r="I18" s="43"/>
       <c r="J18" s="40"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -3375,7 +3384,7 @@
       <c r="I19" s="43"/>
       <c r="J19" s="40"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
         <v>79</v>
       </c>
@@ -3396,7 +3405,7 @@
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>49</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42" t="s">
         <v>80</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="s">
         <v>51</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42" t="s">
         <v>83</v>
       </c>
@@ -3497,7 +3506,7 @@
       </c>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42" t="s">
         <v>240</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="42" t="s">
         <v>239</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>81</v>
       </c>
@@ -3565,7 +3574,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>82</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -3620,7 +3629,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
         <v>241</v>
       </c>
@@ -3641,7 +3650,7 @@
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42" t="s">
         <v>84</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="s">
         <v>85</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>86</v>
       </c>
@@ -3711,7 +3720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>87</v>
@@ -3744,26 +3753,26 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="46" customWidth="1"/>
-    <col min="4" max="9" width="11.140625" style="46" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="46"/>
-    <col min="14" max="14" width="4.85546875" style="46" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="46" customWidth="1"/>
+    <col min="4" max="9" width="11.109375" style="46" customWidth="1"/>
+    <col min="10" max="13" width="9.109375" style="46"/>
+    <col min="14" max="14" width="4.88671875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="46"/>
-    <col min="19" max="19" width="5.85546875" style="46" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="46"/>
+    <col min="18" max="18" width="9.109375" style="46"/>
+    <col min="19" max="19" width="5.88671875" style="46" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>84</v>
       </c>
@@ -3793,7 +3802,7 @@
       <c r="U1" s="87"/>
       <c r="V1" s="87"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="61" t="s">
         <v>196</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>161</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
         <v>162</v>
       </c>
@@ -3926,7 +3935,7 @@
       </c>
       <c r="V4" s="87"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
         <v>166</v>
       </c>
@@ -3971,7 +3980,7 @@
       </c>
       <c r="V5" s="87"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>167</v>
       </c>
@@ -4018,7 +4027,7 @@
       </c>
       <c r="V6" s="87"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>168</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>169</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
         <v>181</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
         <v>182</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="D10" s="80" t="s">
         <v>162</v>
@@ -4174,7 +4183,7 @@
       </c>
       <c r="L10" s="83"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>299</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>300</v>
       </c>
@@ -4258,7 +4267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="118" t="s">
         <v>149</v>
       </c>
@@ -4296,7 +4305,19 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>305</v>
+      </c>
       <c r="N14" s="46" t="s">
         <v>166</v>
       </c>
@@ -4304,7 +4325,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N15" s="46" t="s">
         <v>167</v>
       </c>
@@ -4315,7 +4336,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N16" s="46" t="s">
         <v>168</v>
       </c>
@@ -4329,7 +4350,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D17" s="49" t="s">
         <v>138</v>
       </c>
@@ -4359,7 +4380,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="55" t="s">
         <v>219</v>
       </c>
@@ -4391,7 +4412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>161</v>
       </c>
@@ -4421,7 +4442,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
         <v>162</v>
       </c>
@@ -4456,7 +4477,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
         <v>166</v>
       </c>
@@ -4491,7 +4512,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>167</v>
       </c>
@@ -4524,7 +4545,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
         <v>168</v>
       </c>
@@ -4563,7 +4584,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
         <v>169</v>
       </c>
@@ -4596,7 +4617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>181</v>
       </c>
@@ -4627,7 +4648,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="118" t="s">
         <v>182</v>
       </c>
@@ -4658,7 +4679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4670,8 +4691,8 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D29" s="64" t="s">
         <v>138</v>
       </c>
@@ -4682,7 +4703,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="65" t="s">
         <v>298</v>
       </c>
@@ -4693,7 +4714,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
         <v>161</v>
       </c>
@@ -4707,7 +4728,7 @@
       <c r="E31" s="84"/>
       <c r="F31" s="70"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
         <v>162</v>
       </c>
@@ -4725,7 +4746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>166</v>
       </c>
@@ -4743,7 +4764,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
         <v>167</v>
       </c>
@@ -4761,7 +4782,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
         <v>168</v>
       </c>
@@ -4781,7 +4802,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="118" t="s">
         <v>169</v>
       </c>
@@ -4799,14 +4820,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" s="49" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="52" t="s">
         <v>219</v>
       </c>
@@ -4814,7 +4835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
         <v>161</v>
       </c>
@@ -4829,7 +4850,7 @@
       </c>
       <c r="E42" s="70"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
         <v>162</v>
       </c>
@@ -4846,7 +4867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="65" t="s">
         <v>166</v>
       </c>
@@ -4863,7 +4884,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="118" t="s">
         <v>167</v>
       </c>
@@ -4901,25 +4922,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660B940-324A-409A-9742-8BFC9B3A5F3A}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="87" customWidth="1"/>
-    <col min="5" max="19" width="9.140625" style="87"/>
-    <col min="20" max="20" width="9.140625" style="87" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="4" width="11.44140625" style="87" customWidth="1"/>
+    <col min="5" max="19" width="9.109375" style="87"/>
+    <col min="20" max="20" width="9.109375" style="87" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="91">
         <v>15</v>
       </c>
@@ -4969,17 +4990,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="121" t="s">
         <v>238</v>
       </c>
       <c r="E2" s="95">
@@ -4997,23 +5018,23 @@
       <c r="I2" s="97">
         <v>0</v>
       </c>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="167"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="146" t="s">
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147" t="s">
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
       <c r="V2" s="87" t="s">
         <v>81</v>
       </c>
@@ -5021,17 +5042,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="175" t="s">
+      <c r="D3" s="124" t="s">
         <v>128</v>
       </c>
       <c r="E3" s="98">
@@ -5049,23 +5070,23 @@
       <c r="I3" s="99">
         <v>1</v>
       </c>
-      <c r="J3" s="149" t="s">
+      <c r="J3" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="140" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149" t="s">
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
       <c r="V3" s="87" t="s">
         <v>265</v>
       </c>
@@ -5079,15 +5100,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="98">
         <v>0</v>
       </c>
@@ -5106,22 +5127,22 @@
       <c r="J4" s="117">
         <v>0</v>
       </c>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="140" t="s">
+      <c r="L4" s="195"/>
+      <c r="M4" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149" t="s">
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="150"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="171"/>
       <c r="V4" s="87" t="s">
         <v>266</v>
       </c>
@@ -5135,13 +5156,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="179" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="181"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="98">
         <v>0</v>
       </c>
@@ -5160,22 +5181,22 @@
       <c r="J5" s="114">
         <v>1</v>
       </c>
-      <c r="K5" s="141" t="s">
+      <c r="K5" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="137" t="s">
+      <c r="L5" s="161"/>
+      <c r="M5" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="137" t="s">
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="139"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="160"/>
       <c r="V5" s="87" t="s">
         <v>267</v>
       </c>
@@ -5189,15 +5210,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="176" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="178"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="98">
         <v>0</v>
       </c>
@@ -5216,20 +5237,20 @@
       <c r="J6" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="137" t="s">
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="160"/>
       <c r="V6" s="87" t="s">
         <v>268</v>
       </c>
@@ -5243,41 +5264,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="184" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="128">
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="134">
         <v>0</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="131">
         <v>0</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
-      <c r="H7" s="122">
+      <c r="H7" s="128">
         <v>0</v>
       </c>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="131" t="s">
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="133"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="154"/>
       <c r="V7" s="87" t="s">
         <v>269</v>
       </c>
@@ -5291,27 +5312,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="136"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="157"/>
       <c r="V8" s="87" t="s">
         <v>270</v>
       </c>
@@ -5325,15 +5346,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="176" t="s">
+      <c r="B9" s="173"/>
+      <c r="C9" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="178"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="98">
         <v>0</v>
       </c>
@@ -5352,18 +5373,18 @@
       <c r="J9" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="141" t="s">
+      <c r="K9" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="139"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="160"/>
       <c r="V9" s="87" t="s">
         <v>271</v>
       </c>
@@ -5377,13 +5398,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="196" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
       <c r="E10" s="98">
         <v>0</v>
       </c>
@@ -5399,19 +5420,19 @@
       <c r="I10" s="100">
         <v>1</v>
       </c>
-      <c r="J10" s="159" t="s">
+      <c r="J10" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="160"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="183"/>
       <c r="V10" s="87" t="s">
         <v>272</v>
       </c>
@@ -5425,41 +5446,41 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="184" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="128">
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="134">
         <v>0</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="131">
         <v>1</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="131">
         <v>0</v>
       </c>
-      <c r="H11" s="122">
+      <c r="H11" s="128">
         <v>0</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="131" t="s">
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="133"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="154"/>
       <c r="V11" s="87" t="s">
         <v>273</v>
       </c>
@@ -5473,27 +5494,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="136"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="140"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="157"/>
       <c r="V12" s="87" t="s">
         <v>274</v>
       </c>
@@ -5507,41 +5528,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="128">
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="134">
         <v>0</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="131">
         <v>1</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="131">
         <v>0</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="128">
         <v>1</v>
       </c>
-      <c r="I13" s="142" t="s">
+      <c r="I13" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="131" t="s">
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="133"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="154"/>
       <c r="V13" s="87" t="s">
         <v>275</v>
       </c>
@@ -5555,27 +5576,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="136"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="157"/>
       <c r="V14" s="87" t="s">
         <v>276</v>
       </c>
@@ -5589,43 +5610,43 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="184" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="128">
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="131">
         <v>1</v>
       </c>
-      <c r="G15" s="122">
+      <c r="G15" s="128">
         <v>1</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="131" t="s">
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="132"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="131" t="s">
+      <c r="M15" s="153"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="131" t="s">
+      <c r="P15" s="153"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="132"/>
-      <c r="T15" s="133"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="154"/>
       <c r="V15" s="87" t="s">
         <v>277</v>
       </c>
@@ -5639,27 +5660,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="157"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="180"/>
       <c r="V16" s="87" t="s">
         <v>278</v>
       </c>
@@ -5673,27 +5694,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="157"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="180"/>
       <c r="V17" s="87" t="s">
         <v>279</v>
       </c>
@@ -5707,27 +5728,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="136"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="157"/>
       <c r="V18" s="87" t="s">
         <v>280</v>
       </c>
@@ -5741,84 +5762,84 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="184" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="162">
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="188">
         <v>1</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="131" t="s">
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="132"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="131" t="s">
+      <c r="K19" s="153"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="133"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="157"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="154"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="180"/>
       <c r="V20" s="87" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="193"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="157"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="180"/>
       <c r="V21" s="87" t="s">
         <v>58</v>
       </c>
@@ -5829,27 +5850,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="193"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="157"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="180"/>
       <c r="V22" s="88" t="s">
         <v>223</v>
       </c>
@@ -5860,27 +5881,27 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="193"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="157"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="180"/>
       <c r="V23" s="88" t="s">
         <v>224</v>
       </c>
@@ -5888,27 +5909,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="193"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="157"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="180"/>
       <c r="V24" s="88" t="s">
         <v>225</v>
       </c>
@@ -5916,27 +5937,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="193"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="152"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="157"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="180"/>
       <c r="V25" s="88" t="s">
         <v>226</v>
       </c>
@@ -5944,203 +5965,203 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="157"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="193"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="152"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="157"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="193"/>
-      <c r="B28" s="194"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="157"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="193"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="152"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="157"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="193"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="157"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="193"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="152"/>
-      <c r="S31" s="152"/>
-      <c r="T31" s="157"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="193"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="157"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="193"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="157"/>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="155"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="155"/>
-      <c r="T34" s="158"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="180"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="180"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="180"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="180"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="180"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="180"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="180"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="180"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -6216,12 +6237,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
@@ -6240,7 +6261,7 @@
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>39</v>
       </c>
@@ -6263,7 +6284,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>41</v>
       </c>
@@ -6291,7 +6312,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -6317,7 +6338,7 @@
       <c r="L4" s="87"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -6340,7 +6361,7 @@
       <c r="L5" s="87"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -6363,7 +6384,7 @@
       <c r="L6" s="87"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>46</v>
       </c>
@@ -6379,7 +6400,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>241</v>
       </c>
@@ -6394,7 +6415,7 @@
       <c r="J8" s="87"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>70</v>
       </c>
@@ -6408,7 +6429,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>48</v>
       </c>
@@ -6424,7 +6445,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>49</v>
       </c>
@@ -6442,7 +6463,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -6458,7 +6479,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
@@ -6480,7 +6501,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
@@ -6496,7 +6517,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>11</v>
       </c>
@@ -6512,7 +6533,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>13</v>
       </c>
@@ -6528,7 +6549,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -6544,7 +6565,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -6559,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>34</v>
       </c>
@@ -6574,7 +6595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>253</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>255</v>
       </c>
@@ -6604,7 +6625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
@@ -6619,7 +6640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>19</v>
       </c>
@@ -6634,7 +6655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -6649,7 +6670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>228</v>
       </c>
@@ -6664,7 +6685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>23</v>
       </c>
@@ -6679,7 +6700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>29</v>
       </c>
@@ -6694,7 +6715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>26</v>
       </c>
@@ -6709,7 +6730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>28</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30">
         <f>SUM(E2:E29)</f>
         <v>57</v>
@@ -6744,13 +6765,13 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="3.5703125" customWidth="1"/>
+    <col min="1" max="4" width="3.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6773,7 +6794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="101">
         <v>0</v>
       </c>
@@ -6796,7 +6817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="104">
         <v>0</v>
       </c>
@@ -6819,7 +6840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="104">
         <v>0</v>
       </c>
@@ -6842,7 +6863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="107">
         <v>0</v>
       </c>
@@ -6865,7 +6886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="101">
         <v>0</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="104">
         <v>0</v>
       </c>
@@ -6911,7 +6932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="104">
         <v>0</v>
       </c>
@@ -6934,7 +6955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="107">
         <v>0</v>
       </c>
@@ -6957,7 +6978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="101">
         <v>1</v>
       </c>
@@ -6980,7 +7001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="104">
         <v>1</v>
       </c>
@@ -7003,7 +7024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="104">
         <v>1</v>
       </c>
@@ -7026,7 +7047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="107">
         <v>1</v>
       </c>
@@ -7049,7 +7070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="110">
         <v>1</v>
       </c>
@@ -7072,7 +7093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="104">
         <v>1</v>
       </c>
@@ -7095,7 +7116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="104">
         <v>1</v>
       </c>
@@ -7118,7 +7139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="107">
         <v>1</v>
       </c>

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\source\repos\MyCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8D6BA-7D1C-4C8D-A7F4-3C10654F1960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC83BE-4CB3-43F2-904D-03251057D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="306">
   <si>
     <t>S3</t>
   </si>
@@ -946,7 +946,7 @@
     <t>DB &lt;- Rm op Rn</t>
   </si>
   <si>
-    <t>???</t>
+    <t>#Rn</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2048,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2141,9 +2141,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="3" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2153,9 +2151,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="35" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="3" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2171,9 +2167,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="3" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2292,6 +2286,198 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2301,67 +2487,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,147 +2508,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="İyi" xfId="3" builtinId="26"/>
@@ -2522,7 +2519,14 @@
     <cellStyle name="Not" xfId="2" builtinId="10"/>
     <cellStyle name="Nötr" xfId="4" builtinId="28"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2815,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587EB1-1C15-4BDC-B095-DE818FDD326C}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3752,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489E50B-F7AE-40DA-B3EF-ED84A344FCCC}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3796,38 +3800,38 @@
       <c r="Q1" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="193" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="194" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="195" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="54" t="s">
         <v>186</v>
       </c>
       <c r="N2" s="46" t="s">
@@ -3843,37 +3847,37 @@
         <v>144</v>
       </c>
       <c r="S2" s="47"/>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="87" t="s">
+      <c r="U2" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="88" t="s">
+      <c r="V2" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>161</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="N3" s="46" t="s">
         <v>162</v>
       </c>
@@ -3887,39 +3891,39 @@
         <v>145</v>
       </c>
       <c r="S3" s="47"/>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="U3" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="87" t="s">
+      <c r="V3" s="81" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="52" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="78" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="83"/>
+      <c r="L4" s="77"/>
       <c r="N4" s="46" t="s">
         <v>166</v>
       </c>
@@ -3927,41 +3931,41 @@
         <v>141</v>
       </c>
       <c r="S4" s="47"/>
-      <c r="T4" s="88" t="s">
+      <c r="T4" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="87"/>
+      <c r="V4" s="81"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="78" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="79" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="78" t="s">
+      <c r="J5" s="75"/>
+      <c r="K5" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="77"/>
       <c r="N5" s="46" t="s">
         <v>167</v>
       </c>
@@ -3972,41 +3976,41 @@
         <v>146</v>
       </c>
       <c r="S5" s="47"/>
-      <c r="T5" s="88" t="s">
+      <c r="T5" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="U5" s="87" t="s">
+      <c r="U5" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="87"/>
+      <c r="V5" s="81"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="52" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="78" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="79" t="s">
+      <c r="H6" s="77"/>
+      <c r="I6" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="78" t="s">
+      <c r="J6" s="75"/>
+      <c r="K6" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="77"/>
       <c r="N6" s="46" t="s">
         <v>168</v>
       </c>
@@ -4019,37 +4023,37 @@
       <c r="R6" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="T6" s="88" t="s">
+      <c r="T6" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="87"/>
+      <c r="V6" s="81"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="52" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="78" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="77"/>
       <c r="N7" s="46" t="s">
         <v>169</v>
       </c>
@@ -4064,32 +4068,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="52" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="79" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="77" t="s">
         <v>162</v>
       </c>
       <c r="N8" s="46" t="s">
@@ -4106,32 +4110,32 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="52" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="79" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="77" t="s">
         <v>169</v>
       </c>
       <c r="N9" s="46" t="s">
@@ -4148,72 +4152,72 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="52" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="82" t="s">
+      <c r="E10" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="83" t="s">
+      <c r="F10" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="79" t="s">
+      <c r="H10" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="J10" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="L10" s="83"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="52" t="s">
         <v>299</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="79" t="s">
+      <c r="H11" s="77"/>
+      <c r="I11" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="78" t="s">
+      <c r="J11" s="75"/>
+      <c r="K11" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="77"/>
       <c r="N11" s="46" t="s">
         <v>183</v>
       </c>
@@ -4222,36 +4226,36 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="52" t="s">
         <v>300</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="78" t="s">
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="77" t="s">
         <v>166</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -4267,29 +4271,29 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="118" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="75" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="L13" s="76" t="s">
+      <c r="L13" s="77" t="s">
         <v>161</v>
       </c>
       <c r="N13" s="46" t="s">
@@ -4305,19 +4309,41 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>305</v>
-      </c>
+      <c r="D14" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="72"/>
       <c r="N14" s="46" t="s">
         <v>166</v>
       </c>
@@ -4422,20 +4448,20 @@
       <c r="C19" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="69" t="s">
+      <c r="E19" s="68"/>
+      <c r="F19" s="67" t="s">
         <v>205</v>
       </c>
       <c r="G19" s="50"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="68" t="s">
         <v>161</v>
       </c>
       <c r="N19" s="46" t="s">
@@ -4452,22 +4478,22 @@
       <c r="C20" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="78" t="s">
+      <c r="E20" s="77"/>
+      <c r="F20" s="74" t="s">
         <v>205</v>
       </c>
       <c r="G20" s="53"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="78" t="s">
+      <c r="H20" s="77"/>
+      <c r="I20" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="J20" s="83" t="s">
+      <c r="J20" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="77" t="s">
         <v>161</v>
       </c>
       <c r="N20" s="46" t="s">
@@ -4487,22 +4513,22 @@
       <c r="C21" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="78" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="74" t="s">
         <v>205</v>
       </c>
       <c r="G21" s="53"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="78" t="s">
+      <c r="H21" s="77"/>
+      <c r="I21" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="83" t="s">
+      <c r="J21" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="77" t="s">
         <v>161</v>
       </c>
       <c r="N21" s="46" t="s">
@@ -4522,20 +4548,20 @@
       <c r="C22" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="78" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="74" t="s">
         <v>205</v>
       </c>
       <c r="G22" s="53"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="83" t="s">
+      <c r="H22" s="77"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="83" t="s">
+      <c r="K22" s="77" t="s">
         <v>162</v>
       </c>
       <c r="N22" s="46" t="s">
@@ -4555,26 +4581,26 @@
       <c r="C23" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="78"/>
-      <c r="J23" s="83" t="s">
+      <c r="I23" s="74"/>
+      <c r="J23" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="77" t="s">
         <v>161</v>
       </c>
       <c r="N23" s="46" t="s">
@@ -4594,26 +4620,26 @@
       <c r="C24" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="F24" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="83" t="s">
+      <c r="I24" s="74"/>
+      <c r="J24" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="83" t="s">
+      <c r="K24" s="77" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4627,29 +4653,29 @@
       <c r="C25" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="78" t="s">
+      <c r="E25" s="77"/>
+      <c r="F25" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="78"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="74"/>
+      <c r="J25" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="77" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="112" t="s">
         <v>182</v>
       </c>
       <c r="B26" s="55" t="s">
@@ -4658,24 +4684,24 @@
       <c r="C26" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="75" t="s">
+      <c r="E26" s="72"/>
+      <c r="F26" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76" t="s">
+      <c r="I26" s="71"/>
+      <c r="J26" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="72" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4724,9 +4750,9 @@
       <c r="C31" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="70"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="68"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
@@ -4738,11 +4764,11 @@
       <c r="C32" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85" t="s">
+      <c r="D32" s="79"/>
+      <c r="E32" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="77" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4756,11 +4782,11 @@
       <c r="C33" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85" t="s">
+      <c r="D33" s="79"/>
+      <c r="E33" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="77" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4774,11 +4800,11 @@
       <c r="C34" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85" t="s">
+      <c r="D34" s="79"/>
+      <c r="E34" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="77" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4792,18 +4818,18 @@
       <c r="C35" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="77" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="112" t="s">
         <v>169</v>
       </c>
       <c r="B36" s="55" t="s">
@@ -4812,11 +4838,11 @@
       <c r="C36" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86" t="s">
+      <c r="D36" s="80"/>
+      <c r="E36" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="76" t="s">
+      <c r="F36" s="72" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4845,10 +4871,10 @@
       <c r="C42" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="E42" s="70"/>
+      <c r="E42" s="68"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
@@ -4860,10 +4886,10 @@
       <c r="C43" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="77" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4877,15 +4903,15 @@
       <c r="C44" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="E44" s="83" t="s">
+      <c r="E44" s="77" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="112" t="s">
         <v>167</v>
       </c>
       <c r="B45" s="55" t="s">
@@ -4894,23 +4920,28 @@
       <c r="C45" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="72" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D3:L13 D31:F36 D42:E45 D26:F26 H26:K26 D19:F24 H19:K24">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25 H25:K25">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:L14">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D25))=0</formula>
+      <formula>LEN(TRIM(D14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4928,1243 +4959,1285 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.44140625" style="87" customWidth="1"/>
-    <col min="5" max="19" width="9.109375" style="87"/>
-    <col min="20" max="20" width="9.109375" style="87" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="87"/>
+    <col min="1" max="4" width="11.44140625" style="81" customWidth="1"/>
+    <col min="5" max="19" width="9.109375" style="81"/>
+    <col min="20" max="20" width="9.109375" style="81" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="91">
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="85">
         <v>15</v>
       </c>
-      <c r="F1" s="92">
+      <c r="F1" s="86">
         <v>14</v>
       </c>
-      <c r="G1" s="92">
+      <c r="G1" s="86">
         <v>13</v>
       </c>
-      <c r="H1" s="93">
+      <c r="H1" s="87">
         <v>12</v>
       </c>
-      <c r="I1" s="92">
+      <c r="I1" s="86">
         <v>11</v>
       </c>
-      <c r="J1" s="92">
+      <c r="J1" s="86">
         <v>10</v>
       </c>
-      <c r="K1" s="92">
+      <c r="K1" s="86">
         <v>9</v>
       </c>
-      <c r="L1" s="92">
+      <c r="L1" s="86">
         <v>8</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="92">
+      <c r="N1" s="86">
         <v>6</v>
       </c>
-      <c r="O1" s="92">
+      <c r="O1" s="86">
         <v>5</v>
       </c>
-      <c r="P1" s="92">
+      <c r="P1" s="86">
         <v>4</v>
       </c>
-      <c r="Q1" s="92">
+      <c r="Q1" s="86">
         <v>3</v>
       </c>
-      <c r="R1" s="92">
+      <c r="R1" s="86">
         <v>2</v>
       </c>
-      <c r="S1" s="92">
+      <c r="S1" s="86">
         <v>1</v>
       </c>
-      <c r="T1" s="94">
+      <c r="T1" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="95">
+      <c r="E2" s="89">
         <v>0</v>
       </c>
-      <c r="F2" s="116">
+      <c r="F2" s="110">
         <v>0</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="110">
         <v>0</v>
       </c>
-      <c r="H2" s="96">
+      <c r="H2" s="90">
         <v>0</v>
       </c>
-      <c r="I2" s="97">
+      <c r="I2" s="91">
         <v>0</v>
       </c>
-      <c r="J2" s="192" t="s">
+      <c r="J2" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="167" t="s">
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="V2" s="87" t="s">
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="179"/>
+      <c r="V2" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="87" t="s">
+      <c r="Y2" s="81" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="92">
         <v>0</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="107">
         <v>0</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="107">
         <v>0</v>
       </c>
-      <c r="H3" s="114">
+      <c r="H3" s="108">
         <v>0</v>
       </c>
-      <c r="I3" s="99">
+      <c r="I3" s="93">
         <v>1</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="161" t="s">
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
-      <c r="V3" s="87" t="s">
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="181"/>
+      <c r="V3" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="W3" s="87" t="s">
+      <c r="W3" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="Y3" s="87" t="s">
+      <c r="Y3" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="Z3" s="87" t="s">
+      <c r="Z3" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="98">
+      <c r="C4" s="189"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="92">
         <v>0</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F4" s="107">
         <v>0</v>
       </c>
-      <c r="G4" s="113">
+      <c r="G4" s="107">
         <v>0</v>
       </c>
-      <c r="H4" s="114">
+      <c r="H4" s="108">
         <v>1</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="93">
         <v>0</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="111">
         <v>0</v>
       </c>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="195"/>
-      <c r="M4" s="161" t="s">
+      <c r="L4" s="123"/>
+      <c r="M4" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="171"/>
-      <c r="V4" s="87" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="181"/>
+      <c r="V4" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="Y4" s="87" t="s">
+      <c r="Y4" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="Z4" s="87" t="s">
+      <c r="Z4" s="81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="98">
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="92">
         <v>0</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="107">
         <v>0</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="107">
         <v>0</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="108">
         <v>1</v>
       </c>
-      <c r="I5" s="115">
+      <c r="I5" s="109">
         <v>0</v>
       </c>
-      <c r="J5" s="114">
+      <c r="J5" s="108">
         <v>1</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="161" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="158" t="s">
+      <c r="L5" s="180"/>
+      <c r="M5" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="158" t="s">
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="160"/>
-      <c r="V5" s="87" t="s">
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="163"/>
+      <c r="V5" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="W5" s="87" t="s">
+      <c r="W5" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="Y5" s="87" t="s">
+      <c r="Y5" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="Z5" s="87" t="s">
+      <c r="Z5" s="81" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="145"/>
+      <c r="C6" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="98">
+      <c r="D6" s="125"/>
+      <c r="E6" s="92">
         <v>0</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="107">
         <v>0</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="107">
         <v>0</v>
       </c>
-      <c r="H6" s="114">
+      <c r="H6" s="108">
         <v>1</v>
       </c>
-      <c r="I6" s="99">
+      <c r="I6" s="93">
         <v>1</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="158" t="s">
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="V6" s="87" t="s">
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="163"/>
+      <c r="V6" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="W6" s="87" t="s">
+      <c r="W6" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="Y6" s="87" t="s">
+      <c r="Y6" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="Z6" s="87" t="s">
+      <c r="Z6" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="134">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="128">
         <v>0</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="126">
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="126">
         <v>1</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="142">
         <v>0</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="152" t="s">
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="154"/>
-      <c r="V7" s="87" t="s">
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="150"/>
+      <c r="V7" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="W7" s="87" t="s">
+      <c r="W7" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="Y7" s="87" t="s">
+      <c r="Y7" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="Z7" s="87" t="s">
+      <c r="Z7" s="81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157"/>
-      <c r="V8" s="87" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="152"/>
+      <c r="V8" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="W8" s="87" t="s">
+      <c r="W8" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="Y8" s="87" t="s">
+      <c r="Y8" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="Z8" s="87" t="s">
+      <c r="Z8" s="81" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="146" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="98">
+      <c r="D9" s="125"/>
+      <c r="E9" s="92">
         <v>0</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="107">
         <v>0</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="107">
         <v>1</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="108">
         <v>1</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="93">
         <v>0</v>
       </c>
-      <c r="J9" s="114" t="s">
+      <c r="J9" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="162" t="s">
+      <c r="K9" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="160"/>
-      <c r="V9" s="87" t="s">
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="163"/>
+      <c r="V9" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="W9" s="87" t="s">
+      <c r="W9" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="Y9" s="87" t="s">
+      <c r="Y9" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="Z9" s="87" t="s">
+      <c r="Z9" s="81" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="98">
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="92">
         <v>0</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="107">
         <v>0</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="107">
         <v>1</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="108">
         <v>1</v>
       </c>
-      <c r="I10" s="100">
+      <c r="I10" s="94">
         <v>1</v>
       </c>
-      <c r="J10" s="182" t="s">
+      <c r="J10" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="183"/>
-      <c r="V10" s="87" t="s">
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="165"/>
+      <c r="V10" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="W10" s="87" t="s">
+      <c r="W10" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="Y10" s="87" t="s">
+      <c r="Y10" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="Z10" s="87" t="s">
+      <c r="Z10" s="81" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="134">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="128">
         <v>0</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="126">
         <v>1</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="126">
         <v>0</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="142">
         <v>0</v>
       </c>
-      <c r="I11" s="163" t="s">
+      <c r="I11" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="152" t="s">
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="154"/>
-      <c r="V11" s="87" t="s">
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="150"/>
+      <c r="V11" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="W11" s="87" t="s">
+      <c r="W11" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="Y11" s="87" t="s">
+      <c r="Y11" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="Z11" s="87" t="s">
+      <c r="Z11" s="81" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="157"/>
-      <c r="V12" s="87" t="s">
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="152"/>
+      <c r="V12" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="W12" s="87" t="s">
+      <c r="W12" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="Y12" s="87" t="s">
+      <c r="Y12" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="Z12" s="87" t="s">
+      <c r="Z12" s="81" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="134">
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="128">
         <v>0</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="126">
         <v>1</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="126">
         <v>0</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="142">
         <v>1</v>
       </c>
-      <c r="I13" s="163" t="s">
+      <c r="I13" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="152" t="s">
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="154"/>
-      <c r="V13" s="87" t="s">
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="150"/>
+      <c r="V13" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="W13" s="87" t="s">
+      <c r="W13" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="Y13" s="87" t="s">
+      <c r="Y13" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="Z13" s="87" t="s">
+      <c r="Z13" s="81" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="157"/>
-      <c r="V14" s="87" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="152"/>
+      <c r="V14" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="W14" s="87" t="s">
+      <c r="W14" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="Y14" s="87" t="s">
+      <c r="Y14" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="Z14" s="87" t="s">
+      <c r="Z14" s="81" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="134">
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="128">
         <v>0</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="126">
         <v>1</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="142">
         <v>1</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="152" t="s">
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="152" t="s">
+      <c r="M15" s="137"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="152" t="s">
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="153"/>
-      <c r="T15" s="154"/>
-      <c r="V15" s="87" t="s">
+      <c r="S15" s="137"/>
+      <c r="T15" s="150"/>
+      <c r="V15" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="W15" s="87" t="s">
+      <c r="W15" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="Y15" s="87" t="s">
+      <c r="Y15" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="Z15" s="87" t="s">
+      <c r="Z15" s="81" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="180"/>
-      <c r="V16" s="87" t="s">
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="159"/>
+      <c r="V16" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="W16" s="87" t="s">
+      <c r="W16" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="Y16" s="87" t="s">
+      <c r="Y16" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="Z16" s="87" t="s">
+      <c r="Z16" s="81" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="180"/>
-      <c r="V17" s="87" t="s">
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="159"/>
+      <c r="V17" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="W17" s="87" t="s">
+      <c r="W17" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="Y17" s="87" t="s">
+      <c r="Y17" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="Z17" s="87" t="s">
+      <c r="Z17" s="81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="157"/>
-      <c r="V18" s="87" t="s">
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="152"/>
+      <c r="V18" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="W18" s="87" t="s">
+      <c r="W18" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="Y18" s="87" t="s">
+      <c r="Y18" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="Z18" s="87" t="s">
+      <c r="Z18" s="81" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="188">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="173">
         <v>1</v>
       </c>
-      <c r="F19" s="163" t="s">
+      <c r="F19" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="152" t="s">
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="153"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="152" t="s">
+      <c r="K19" s="137"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="154"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="150"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="180"/>
-      <c r="V20" s="87" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="159"/>
+      <c r="V20" s="81" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="180"/>
-      <c r="V21" s="87" t="s">
+      <c r="A21" s="167"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="159"/>
+      <c r="V21" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="87" t="s">
+      <c r="W21" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="X21" s="88" t="s">
+      <c r="X21" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="180"/>
-      <c r="V22" s="88" t="s">
+      <c r="A22" s="167"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="159"/>
+      <c r="V22" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="W22" s="87" t="s">
+      <c r="W22" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="X22" s="87" t="s">
+      <c r="X22" s="81" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="180"/>
-      <c r="V23" s="88" t="s">
+      <c r="A23" s="167"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="159"/>
+      <c r="V23" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="W23" s="87" t="s">
+      <c r="W23" s="81" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="180"/>
-      <c r="V24" s="88" t="s">
+      <c r="A24" s="167"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="159"/>
+      <c r="V24" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="W24" s="87" t="s">
+      <c r="W24" s="81" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="180"/>
-      <c r="V25" s="88" t="s">
+      <c r="A25" s="167"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="159"/>
+      <c r="V25" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="W25" s="87" t="s">
+      <c r="W25" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="180"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="159"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="180"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="159"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="180"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="159"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="180"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="159"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="180"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="159"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="180"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="159"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="180"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="159"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="180"/>
+      <c r="A33" s="167"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="159"/>
     </row>
     <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="185"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="181"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M11:T12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J19:L34"/>
+    <mergeCell ref="M19:T34"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="J10:T10"/>
+    <mergeCell ref="M13:T14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="L15:N18"/>
+    <mergeCell ref="O15:Q18"/>
+    <mergeCell ref="R15:T18"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="E19:E34"/>
+    <mergeCell ref="F19:I34"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C6:D6"/>
@@ -6181,48 +6254,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="M11:T12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J19:L34"/>
-    <mergeCell ref="M19:T34"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="J10:T10"/>
-    <mergeCell ref="M13:T14"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="L15:N18"/>
-    <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="R15:T18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="E19:E34"/>
-    <mergeCell ref="F19:I34"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6255,11 +6286,11 @@
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -6273,13 +6304,13 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="82" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="17"/>
@@ -6301,13 +6332,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="37"/>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="81" t="s">
         <v>222</v>
       </c>
       <c r="N3" s="17"/>
@@ -6329,13 +6360,13 @@
         <v>3</v>
       </c>
       <c r="G4" s="37"/>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="81"/>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -6352,13 +6383,13 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="87"/>
+      <c r="L5" s="81"/>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -6375,13 +6406,13 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="87"/>
+      <c r="L6" s="81"/>
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6407,12 +6438,12 @@
       <c r="B8" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="5"/>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="81"/>
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6511,7 +6542,7 @@
       <c r="C14" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="84"/>
       <c r="E14">
         <v>2</v>
       </c>
@@ -6795,16 +6826,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="101">
+      <c r="A2" s="95">
         <v>0</v>
       </c>
-      <c r="B2" s="102">
+      <c r="B2" s="96">
         <v>0</v>
       </c>
-      <c r="C2" s="102">
+      <c r="C2" s="96">
         <v>0</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="97">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -6818,16 +6849,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="104">
+      <c r="A3" s="98">
         <v>0</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="99">
         <v>0</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="99">
         <v>0</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="100">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -6841,16 +6872,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="104">
+      <c r="A4" s="98">
         <v>0</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="99">
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="99">
         <v>1</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="100">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -6864,16 +6895,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107">
+      <c r="A5" s="101">
         <v>0</v>
       </c>
-      <c r="B5" s="108">
+      <c r="B5" s="102">
         <v>0</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="102">
         <v>1</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="103">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -6887,16 +6918,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="101">
+      <c r="A6" s="95">
         <v>0</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="96">
         <v>1</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="96">
         <v>0</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="97">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -6910,16 +6941,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="104">
+      <c r="A7" s="98">
         <v>0</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B7" s="99">
         <v>1</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="99">
         <v>0</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="100">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -6933,16 +6964,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="104">
+      <c r="A8" s="98">
         <v>0</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="99">
         <v>1</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="99">
         <v>1</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="100">
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -6956,16 +6987,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107">
+      <c r="A9" s="101">
         <v>0</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="102">
         <v>1</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="102">
         <v>1</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="103">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -6979,16 +7010,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="101">
+      <c r="A10" s="95">
         <v>1</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="96">
         <v>0</v>
       </c>
-      <c r="C10" s="102">
+      <c r="C10" s="96">
         <v>0</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="97">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -7002,16 +7033,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="104">
+      <c r="A11" s="98">
         <v>1</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="99">
         <v>0</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="99">
         <v>0</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="100">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -7025,16 +7056,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="104">
+      <c r="A12" s="98">
         <v>1</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="99">
         <v>0</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="99">
         <v>1</v>
       </c>
-      <c r="D12" s="106">
+      <c r="D12" s="100">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -7048,16 +7079,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107">
+      <c r="A13" s="101">
         <v>1</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="102">
         <v>0</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="102">
         <v>1</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="103">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -7071,16 +7102,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="110">
+      <c r="A14" s="104">
         <v>1</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="105">
         <v>1</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="105">
         <v>0</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="106">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7094,16 +7125,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="104">
+      <c r="A15" s="98">
         <v>1</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="99">
         <v>1</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="99">
         <v>0</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="100">
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -7117,16 +7148,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="104">
+      <c r="A16" s="98">
         <v>1</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="99">
         <v>1</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="99">
         <v>1</v>
       </c>
-      <c r="D16" s="106">
+      <c r="D16" s="100">
         <v>0</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -7140,16 +7171,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107">
+      <c r="A17" s="101">
         <v>1</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="102">
         <v>1</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="102">
         <v>1</v>
       </c>
-      <c r="D17" s="109">
+      <c r="D17" s="103">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">

--- a/Instruction Set/InstSet.xlsx
+++ b/Instruction Set/InstSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\source\repos\MyCPU\Instruction Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemal\Documents\GitHub\myCPU\Instruction Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC83BE-4CB3-43F2-904D-03251057D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDB6C0-00B8-4E51-9F9A-144FE18BA937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="InstSet" sheetId="2" r:id="rId4"/>
     <sheet name="ALU" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2286,238 +2286,238 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="İyi" xfId="3" builtinId="26"/>
-    <cellStyle name="Kötü" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Not" xfId="2" builtinId="10"/>
-    <cellStyle name="Nötr" xfId="4" builtinId="28"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2819,17 +2819,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0587EB1-1C15-4BDC-B095-DE818FDD326C}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>39</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>73</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>75</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>42</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>77</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>76</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>43</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="I9" s="43"/>
       <c r="J9" s="40"/>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>231</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>45</v>
       </c>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>232</v>
       </c>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
         <v>101</v>
@@ -3240,7 +3240,7 @@
       <c r="I13" s="43"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>233</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="I14" s="43"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61"/>
       <c r="B15" s="61" t="s">
         <v>87</v>
@@ -3294,7 +3294,7 @@
       <c r="I15" s="43"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>46</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="I16" s="43"/>
       <c r="J16" s="40"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>78</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="I17" s="43"/>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="I18" s="43"/>
       <c r="J18" s="40"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>48</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="I19" s="43"/>
       <c r="J19" s="40"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>79</v>
       </c>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>49</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>80</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>51</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>83</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>240</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>239</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>81</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>82</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>241</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>84</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>85</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>86</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>87</v>
@@ -3757,26 +3757,26 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="46" customWidth="1"/>
-    <col min="4" max="9" width="11.109375" style="46" customWidth="1"/>
-    <col min="10" max="13" width="9.109375" style="46"/>
-    <col min="14" max="14" width="4.88671875" style="46" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="46" customWidth="1"/>
+    <col min="4" max="9" width="11.140625" style="46" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="46"/>
+    <col min="14" max="14" width="4.85546875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="46" customWidth="1"/>
     <col min="17" max="17" width="10" style="46" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="46"/>
-    <col min="19" max="19" width="5.88671875" style="46" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="46"/>
+    <col min="18" max="18" width="9.140625" style="46"/>
+    <col min="19" max="19" width="5.85546875" style="46" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>84</v>
       </c>
@@ -3806,14 +3806,14 @@
       <c r="U1" s="81"/>
       <c r="V1" s="81"/>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="193" t="s">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="121" t="s">
         <v>195</v>
       </c>
       <c r="G2" s="52" t="s">
@@ -3857,7 +3857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>161</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>162</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="V4" s="81"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="V5" s="81"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>167</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="V6" s="81"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>168</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>169</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>181</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>182</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="L10" s="77"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>299</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>300</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>149</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>150</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="46" t="s">
         <v>167</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N16" s="46" t="s">
         <v>168</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D17" s="49" t="s">
         <v>138</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="55" t="s">
         <v>219</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>161</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>162</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>166</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>167</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>168</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>169</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>181</v>
       </c>
@@ -4674,12 +4674,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="112" t="s">
         <v>182</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>263</v>
@@ -4705,7 +4705,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4717,8 +4717,8 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D29" s="64" t="s">
         <v>138</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="65" t="s">
         <v>298</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
         <v>161</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="E31" s="78"/>
       <c r="F31" s="68"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>162</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>166</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>167</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>168</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="112" t="s">
         <v>169</v>
       </c>
@@ -4846,14 +4846,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="49" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="51"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="52" t="s">
         <v>219</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>161</v>
       </c>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="E42" s="68"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>162</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
         <v>166</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="112" t="s">
         <v>167</v>
       </c>
@@ -4957,21 +4957,21 @@
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.44140625" style="81" customWidth="1"/>
-    <col min="5" max="19" width="9.109375" style="81"/>
-    <col min="20" max="20" width="9.109375" style="81" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="81"/>
+    <col min="1" max="4" width="11.42578125" style="81" customWidth="1"/>
+    <col min="5" max="19" width="9.140625" style="81"/>
+    <col min="20" max="20" width="9.140625" style="81" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="183" t="s">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="85">
         <v>15</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
         <v>235</v>
       </c>
@@ -5049,23 +5049,23 @@
       <c r="I2" s="91">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="177" t="s">
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178" t="s">
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
       <c r="V2" s="81" t="s">
         <v>81</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>125</v>
       </c>
@@ -5101,23 +5101,23 @@
       <c r="I3" s="93">
         <v>1</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="180" t="s">
+      <c r="K3" s="167"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122" t="s">
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="181"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="168"/>
       <c r="V3" s="81" t="s">
         <v>265</v>
       </c>
@@ -5131,15 +5131,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="125"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="92">
         <v>0</v>
       </c>
@@ -5158,22 +5158,22 @@
       <c r="J4" s="111">
         <v>0</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="180" t="s">
+      <c r="L4" s="192"/>
+      <c r="M4" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="181"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="168"/>
       <c r="V4" s="81" t="s">
         <v>266</v>
       </c>
@@ -5187,13 +5187,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="146" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="192"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="92">
         <v>0</v>
       </c>
@@ -5212,22 +5212,22 @@
       <c r="J5" s="108">
         <v>1</v>
       </c>
-      <c r="K5" s="161" t="s">
+      <c r="K5" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="180"/>
-      <c r="M5" s="182" t="s">
+      <c r="L5" s="158"/>
+      <c r="M5" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="182" t="s">
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="163"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="157"/>
       <c r="V5" s="81" t="s">
         <v>267</v>
       </c>
@@ -5241,15 +5241,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="144" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="124" t="s">
+      <c r="B6" s="170"/>
+      <c r="C6" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="92">
         <v>0</v>
       </c>
@@ -5268,20 +5268,20 @@
       <c r="J6" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="161" t="s">
+      <c r="K6" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="182" t="s">
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="163"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="157"/>
       <c r="V6" s="81" t="s">
         <v>268</v>
       </c>
@@ -5295,41 +5295,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="128">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="131">
         <v>0</v>
       </c>
-      <c r="F7" s="126">
+      <c r="F7" s="128">
         <v>0</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="128">
         <v>1</v>
       </c>
-      <c r="H7" s="142">
+      <c r="H7" s="125">
         <v>0</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="138"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="161"/>
       <c r="M7" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="151"/>
       <c r="V7" s="81" t="s">
         <v>269</v>
       </c>
@@ -5343,27 +5343,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="152"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="153"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="154"/>
       <c r="V8" s="81" t="s">
         <v>270</v>
       </c>
@@ -5377,15 +5377,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="124" t="s">
+      <c r="B9" s="170"/>
+      <c r="C9" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="92">
         <v>0</v>
       </c>
@@ -5404,18 +5404,18 @@
       <c r="J9" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="161" t="s">
+      <c r="K9" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="163"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="157"/>
       <c r="V9" s="81" t="s">
         <v>271</v>
       </c>
@@ -5429,13 +5429,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="146" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="193" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="92">
         <v>0</v>
       </c>
@@ -5451,19 +5451,19 @@
       <c r="I10" s="94">
         <v>1</v>
       </c>
-      <c r="J10" s="164" t="s">
+      <c r="J10" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="165"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="180"/>
       <c r="V10" s="81" t="s">
         <v>272</v>
       </c>
@@ -5477,41 +5477,41 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="130" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="128">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="131">
         <v>0</v>
       </c>
-      <c r="F11" s="126">
+      <c r="F11" s="128">
         <v>1</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="128">
         <v>0</v>
       </c>
-      <c r="H11" s="142">
+      <c r="H11" s="125">
         <v>0</v>
       </c>
-      <c r="I11" s="136" t="s">
+      <c r="I11" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="161"/>
       <c r="M11" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="151"/>
       <c r="V11" s="81" t="s">
         <v>273</v>
       </c>
@@ -5525,27 +5525,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="140"/>
-      <c r="T12" s="152"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="154"/>
       <c r="V12" s="81" t="s">
         <v>274</v>
       </c>
@@ -5559,41 +5559,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="128">
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="131">
         <v>0</v>
       </c>
-      <c r="F13" s="126">
+      <c r="F13" s="128">
         <v>1</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="128">
         <v>0</v>
       </c>
-      <c r="H13" s="142">
+      <c r="H13" s="125">
         <v>1</v>
       </c>
-      <c r="I13" s="136" t="s">
+      <c r="I13" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="138"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="161"/>
       <c r="M13" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="151"/>
       <c r="V13" s="81" t="s">
         <v>275</v>
       </c>
@@ -5607,27 +5607,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="152"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="154"/>
       <c r="V14" s="81" t="s">
         <v>276</v>
       </c>
@@ -5641,43 +5641,43 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="128">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="131">
         <v>0</v>
       </c>
-      <c r="F15" s="126">
+      <c r="F15" s="128">
         <v>1</v>
       </c>
-      <c r="G15" s="142">
+      <c r="G15" s="125">
         <v>1</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="137"/>
-      <c r="N15" s="138"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="161"/>
       <c r="O15" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="138"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="161"/>
       <c r="R15" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="137"/>
-      <c r="T15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="151"/>
       <c r="V15" s="81" t="s">
         <v>277</v>
       </c>
@@ -5691,27 +5691,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="159"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="140"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="177"/>
       <c r="V16" s="81" t="s">
         <v>278</v>
       </c>
@@ -5725,27 +5725,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="167"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="159"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="140"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="177"/>
       <c r="V17" s="81" t="s">
         <v>279</v>
       </c>
@@ -5759,27 +5759,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="152"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="154"/>
       <c r="V18" s="81" t="s">
         <v>280</v>
       </c>
@@ -5793,84 +5793,84 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="130" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="173">
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="185">
         <v>1</v>
       </c>
-      <c r="F19" s="136" t="s">
+      <c r="F19" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="161"/>
       <c r="J19" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="137"/>
-      <c r="L19" s="138"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="161"/>
       <c r="M19" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="150"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="159"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="151"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="177"/>
       <c r="V20" s="81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="159"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="140"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="177"/>
       <c r="V21" s="81" t="s">
         <v>58</v>
       </c>
@@ -5881,27 +5881,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="167"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="159"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="177"/>
       <c r="V22" s="82" t="s">
         <v>223</v>
       </c>
@@ -5912,27 +5912,27 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="159"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
+      <c r="T23" s="177"/>
       <c r="V23" s="82" t="s">
         <v>224</v>
       </c>
@@ -5940,27 +5940,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="159"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="177"/>
       <c r="V24" s="82" t="s">
         <v>225</v>
       </c>
@@ -5968,27 +5968,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="159"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="177"/>
       <c r="V25" s="82" t="s">
         <v>226</v>
       </c>
@@ -5996,232 +5996,222 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="159"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="167"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="159"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="159"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="167"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
-      <c r="T29" s="159"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="167"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
-      <c r="T30" s="159"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="154"/>
-      <c r="T31" s="159"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="167"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="159"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="167"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="154"/>
-      <c r="T33" s="159"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="170"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="157"/>
-      <c r="P34" s="157"/>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157"/>
-      <c r="T34" s="160"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="177"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="177"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="177"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="177"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="172"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="177"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="140"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="172"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="172"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="177"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="177"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="140"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="177"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:L12"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="M11:T12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
@@ -6238,22 +6228,32 @@
     <mergeCell ref="A19:D34"/>
     <mergeCell ref="E19:E34"/>
     <mergeCell ref="F19:I34"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6268,12 +6268,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="18.33203125" customWidth="1"/>
+    <col min="2" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="K1" s="81"/>
       <c r="L1" s="81"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>39</v>
       </c>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>41</v>
       </c>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="L4" s="81"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="L5" s="81"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="L6" s="81"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>46</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>241</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="J8" s="81"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>70</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>48</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>49</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>11</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>13</v>
       </c>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>34</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>253</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>255</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>19</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>228</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>23</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>29</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>26</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>28</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E30">
         <f>SUM(E2:E29)</f>
         <v>57</v>
@@ -6796,13 +6796,13 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="3.5546875" customWidth="1"/>
+    <col min="1" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="95">
         <v>0</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="98">
         <v>0</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>0</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="101">
         <v>0</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="95">
         <v>0</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
         <v>0</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
         <v>0</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="101">
         <v>0</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="95">
         <v>1</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="98">
         <v>1</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="98">
         <v>1</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="101">
         <v>1</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="104">
         <v>1</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="98">
         <v>1</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="98">
         <v>1</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="101">
         <v>1</v>
       </c>
